--- a/BackTest/2019-10-31 BackTest MTL.xlsx
+++ b/BackTest/2019-10-31 BackTest MTL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>18</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>415</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>20</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L13" t="n">
         <v>415.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>21</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>415</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>21</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L15" t="n">
         <v>415</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>24</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>25</v>
+      </c>
       <c r="L16" t="n">
         <v>415.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>26</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>25</v>
+      </c>
       <c r="L17" t="n">
         <v>415.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>28</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>416.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>31</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>416.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>32</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>416.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>34</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>25</v>
+      </c>
       <c r="L21" t="n">
         <v>417.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>35</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>417.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="K23" t="n">
-        <v>8.571428571428571</v>
+        <v>12.5</v>
       </c>
       <c r="L23" t="n">
         <v>417.7</v>
@@ -1466,7 +1488,7 @@
         <v>38</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.03030303030303</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L24" t="n">
         <v>417.8</v>
@@ -1515,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>6.25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L25" t="n">
         <v>418</v>
@@ -1564,7 +1586,7 @@
         <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L26" t="n">
         <v>418</v>
@@ -1613,7 +1635,7 @@
         <v>40</v>
       </c>
       <c r="K27" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>418.2</v>
@@ -1662,7 +1684,7 @@
         <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>418.2</v>
@@ -1711,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="K29" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L29" t="n">
         <v>418.5</v>
@@ -1760,7 +1782,7 @@
         <v>41</v>
       </c>
       <c r="K30" t="n">
-        <v>28</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L30" t="n">
         <v>418.8</v>
@@ -1809,7 +1831,7 @@
         <v>43</v>
       </c>
       <c r="K31" t="n">
-        <v>15.38461538461539</v>
+        <v>-25</v>
       </c>
       <c r="L31" t="n">
         <v>418.7</v>
@@ -1860,7 +1882,7 @@
         <v>44</v>
       </c>
       <c r="K32" t="n">
-        <v>15.38461538461539</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>418.6</v>
@@ -1911,7 +1933,7 @@
         <v>44</v>
       </c>
       <c r="K33" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>418.7</v>
@@ -1962,7 +1984,7 @@
         <v>46</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>418.7</v>
@@ -2013,7 +2035,7 @@
         <v>47</v>
       </c>
       <c r="K35" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L35" t="n">
         <v>418.7</v>
@@ -2064,7 +2086,7 @@
         <v>47</v>
       </c>
       <c r="K36" t="n">
-        <v>-4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L36" t="n">
         <v>418.6</v>
@@ -2115,7 +2137,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="n">
-        <v>4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>418.5</v>
@@ -2166,7 +2188,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L38" t="n">
         <v>418.4</v>
@@ -2217,7 +2239,7 @@
         <v>47</v>
       </c>
       <c r="K39" t="n">
-        <v>12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>418.3</v>
@@ -2268,7 +2290,7 @@
         <v>48</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L40" t="n">
         <v>418</v>
@@ -2319,7 +2341,7 @@
         <v>49</v>
       </c>
       <c r="K41" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L41" t="n">
         <v>417.8</v>
@@ -2370,7 +2392,7 @@
         <v>49</v>
       </c>
       <c r="K42" t="n">
-        <v>-28.57142857142857</v>
+        <v>-60</v>
       </c>
       <c r="L42" t="n">
         <v>417.5</v>
@@ -2421,7 +2443,7 @@
         <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>417.3</v>
@@ -2472,7 +2494,7 @@
         <v>53</v>
       </c>
       <c r="K44" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L44" t="n">
         <v>417</v>
@@ -2523,7 +2545,7 @@
         <v>54</v>
       </c>
       <c r="K45" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L45" t="n">
         <v>416.7</v>
@@ -2574,7 +2596,7 @@
         <v>55</v>
       </c>
       <c r="K46" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L46" t="n">
         <v>416.3</v>
@@ -2625,7 +2647,7 @@
         <v>56</v>
       </c>
       <c r="K47" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>416</v>
@@ -2676,7 +2698,7 @@
         <v>56</v>
       </c>
       <c r="K48" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>415.7</v>
@@ -2727,7 +2749,7 @@
         <v>57</v>
       </c>
       <c r="K49" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>415.3</v>
@@ -2778,7 +2800,7 @@
         <v>58</v>
       </c>
       <c r="K50" t="n">
-        <v>-29.41176470588236</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L50" t="n">
         <v>415.1</v>
@@ -2829,7 +2851,7 @@
         <v>58</v>
       </c>
       <c r="K51" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L51" t="n">
         <v>415</v>
@@ -2880,7 +2902,7 @@
         <v>58</v>
       </c>
       <c r="K52" t="n">
-        <v>-28.57142857142857</v>
+        <v>-25</v>
       </c>
       <c r="L52" t="n">
         <v>414.9</v>
@@ -2931,7 +2953,7 @@
         <v>59</v>
       </c>
       <c r="K53" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>414.6</v>
@@ -2982,7 +3004,7 @@
         <v>59</v>
       </c>
       <c r="K54" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>414.6</v>
@@ -3033,7 +3055,7 @@
         <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>-38.46153846153847</v>
+        <v>-20</v>
       </c>
       <c r="L55" t="n">
         <v>414.4</v>
@@ -3084,7 +3106,7 @@
         <v>62</v>
       </c>
       <c r="K56" t="n">
-        <v>-46.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L56" t="n">
         <v>414.1</v>
@@ -3135,7 +3157,7 @@
         <v>64</v>
       </c>
       <c r="K57" t="n">
-        <v>-29.41176470588236</v>
+        <v>-25</v>
       </c>
       <c r="L57" t="n">
         <v>413.9</v>
@@ -3186,7 +3208,7 @@
         <v>65</v>
       </c>
       <c r="K58" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>413.8</v>
@@ -3237,7 +3259,7 @@
         <v>66</v>
       </c>
       <c r="K59" t="n">
-        <v>-26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L59" t="n">
         <v>413.7</v>
@@ -3288,7 +3310,7 @@
         <v>67</v>
       </c>
       <c r="K60" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>413.4</v>
@@ -3339,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="K61" t="n">
-        <v>-26.31578947368421</v>
+        <v>-40</v>
       </c>
       <c r="L61" t="n">
         <v>413</v>
@@ -3441,7 +3463,7 @@
         <v>70</v>
       </c>
       <c r="K63" t="n">
-        <v>-30</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L63" t="n">
         <v>412.4</v>
@@ -3492,7 +3514,7 @@
         <v>71</v>
       </c>
       <c r="K64" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L64" t="n">
         <v>412.2</v>
@@ -3543,7 +3565,7 @@
         <v>71</v>
       </c>
       <c r="K65" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L65" t="n">
         <v>412.1</v>
@@ -3594,7 +3616,7 @@
         <v>71</v>
       </c>
       <c r="K66" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>412.2</v>
@@ -3645,7 +3667,7 @@
         <v>71</v>
       </c>
       <c r="K67" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>412.1</v>
@@ -3696,7 +3718,7 @@
         <v>72</v>
       </c>
       <c r="K68" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>411.8</v>
@@ -3747,7 +3769,7 @@
         <v>75</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L69" t="n">
         <v>411.9</v>
@@ -3798,7 +3820,7 @@
         <v>77</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L70" t="n">
         <v>411.9</v>
@@ -3849,7 +3871,7 @@
         <v>78</v>
       </c>
       <c r="K71" t="n">
-        <v>-10</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L71" t="n">
         <v>412.1</v>
@@ -3900,7 +3922,7 @@
         <v>79</v>
       </c>
       <c r="K72" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>412.3</v>
@@ -3951,7 +3973,7 @@
         <v>80</v>
       </c>
       <c r="K73" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>412.7</v>
@@ -4002,7 +4024,7 @@
         <v>80</v>
       </c>
       <c r="K74" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>413</v>
@@ -4053,7 +4075,7 @@
         <v>83</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>413</v>
@@ -4104,7 +4126,7 @@
         <v>83</v>
       </c>
       <c r="K76" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>413</v>
@@ -4155,7 +4177,7 @@
         <v>87</v>
       </c>
       <c r="K77" t="n">
-        <v>13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>413.4</v>
@@ -4257,7 +4279,7 @@
         <v>90</v>
       </c>
       <c r="K79" t="n">
-        <v>8.333333333333332</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L79" t="n">
         <v>413.8</v>
@@ -4308,7 +4330,7 @@
         <v>90</v>
       </c>
       <c r="K80" t="n">
-        <v>13.04347826086956</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L80" t="n">
         <v>414.1</v>
@@ -4359,7 +4381,7 @@
         <v>91</v>
       </c>
       <c r="K81" t="n">
-        <v>21.73913043478261</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L81" t="n">
         <v>414.4</v>
@@ -4410,7 +4432,7 @@
         <v>92</v>
       </c>
       <c r="K82" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>414.5</v>
@@ -4461,7 +4483,7 @@
         <v>92</v>
       </c>
       <c r="K83" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>414.5</v>
@@ -4512,7 +4534,7 @@
         <v>92</v>
       </c>
       <c r="K84" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>414.5</v>
@@ -4563,7 +4585,7 @@
         <v>92</v>
       </c>
       <c r="K85" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>414.8</v>
@@ -4614,7 +4636,7 @@
         <v>94</v>
       </c>
       <c r="K86" t="n">
-        <v>4.347826086956522</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L86" t="n">
         <v>414.9</v>
@@ -4665,7 +4687,7 @@
         <v>95</v>
       </c>
       <c r="K87" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>414.7</v>
@@ -4716,7 +4738,7 @@
         <v>95</v>
       </c>
       <c r="K88" t="n">
-        <v>13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>414.7</v>
@@ -4767,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="K89" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>414.7</v>
@@ -4818,7 +4840,7 @@
         <v>97</v>
       </c>
       <c r="K90" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>414.8</v>
@@ -4869,7 +4891,7 @@
         <v>98</v>
       </c>
       <c r="K91" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>414.7</v>
@@ -4920,7 +4942,7 @@
         <v>99</v>
       </c>
       <c r="K92" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L92" t="n">
         <v>414.8</v>
@@ -4971,7 +4993,7 @@
         <v>99</v>
       </c>
       <c r="K93" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>414.9</v>
@@ -5022,7 +5044,7 @@
         <v>100</v>
       </c>
       <c r="K94" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L94" t="n">
         <v>415.1</v>
@@ -5073,7 +5095,7 @@
         <v>101</v>
       </c>
       <c r="K95" t="n">
-        <v>22.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L95" t="n">
         <v>415.2</v>
@@ -5124,7 +5146,7 @@
         <v>101</v>
       </c>
       <c r="K96" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>415.5</v>
@@ -5175,7 +5197,7 @@
         <v>101</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>415.7</v>
@@ -5226,7 +5248,7 @@
         <v>101</v>
       </c>
       <c r="K98" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>415.9</v>
@@ -5277,7 +5299,7 @@
         <v>103</v>
       </c>
       <c r="K99" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>416.2</v>
@@ -5328,7 +5350,7 @@
         <v>105</v>
       </c>
       <c r="K100" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L100" t="n">
         <v>416.2</v>
@@ -5430,7 +5452,7 @@
         <v>105</v>
       </c>
       <c r="K102" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>416.3</v>
@@ -5481,7 +5503,7 @@
         <v>106</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>416.2</v>
@@ -5532,7 +5554,7 @@
         <v>106</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L104" t="n">
         <v>416</v>
@@ -5583,7 +5605,7 @@
         <v>107</v>
       </c>
       <c r="K105" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>415.8</v>
@@ -5634,7 +5656,7 @@
         <v>107</v>
       </c>
       <c r="K106" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>415.6</v>
@@ -5685,7 +5707,7 @@
         <v>109</v>
       </c>
       <c r="K107" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>415.6</v>
@@ -5736,7 +5758,7 @@
         <v>111</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L108" t="n">
         <v>415.4</v>
@@ -5787,7 +5809,7 @@
         <v>111</v>
       </c>
       <c r="K109" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>415</v>
@@ -5838,7 +5860,7 @@
         <v>111</v>
       </c>
       <c r="K110" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>414.8</v>
@@ -5889,7 +5911,7 @@
         <v>113</v>
       </c>
       <c r="K111" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>414.8</v>
@@ -5940,7 +5962,7 @@
         <v>114</v>
       </c>
       <c r="K112" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>414.7</v>
@@ -5991,7 +6013,7 @@
         <v>116</v>
       </c>
       <c r="K113" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L113" t="n">
         <v>414.5</v>
@@ -6042,7 +6064,7 @@
         <v>117</v>
       </c>
       <c r="K114" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L114" t="n">
         <v>414.2</v>
@@ -6093,7 +6115,7 @@
         <v>117</v>
       </c>
       <c r="K115" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>414</v>
@@ -6144,7 +6166,7 @@
         <v>118</v>
       </c>
       <c r="K116" t="n">
-        <v>-29.41176470588236</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L116" t="n">
         <v>413.7</v>
@@ -6195,7 +6217,7 @@
         <v>119</v>
       </c>
       <c r="K117" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L117" t="n">
         <v>413.1</v>
@@ -6246,7 +6268,7 @@
         <v>119</v>
       </c>
       <c r="K118" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L118" t="n">
         <v>412.7</v>
@@ -6348,7 +6370,7 @@
         <v>119</v>
       </c>
       <c r="K120" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L120" t="n">
         <v>411.9</v>
@@ -6399,7 +6421,7 @@
         <v>120</v>
       </c>
       <c r="K121" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L121" t="n">
         <v>411.4</v>
@@ -6450,7 +6472,7 @@
         <v>120</v>
       </c>
       <c r="K122" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L122" t="n">
         <v>411</v>
@@ -6501,7 +6523,7 @@
         <v>120</v>
       </c>
       <c r="K123" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>410.8</v>
@@ -6552,7 +6574,7 @@
         <v>123</v>
       </c>
       <c r="K124" t="n">
-        <v>-41.17647058823529</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L124" t="n">
         <v>410.4</v>
@@ -6603,7 +6625,7 @@
         <v>123</v>
       </c>
       <c r="K125" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L125" t="n">
         <v>410</v>
@@ -6654,7 +6676,7 @@
         <v>123</v>
       </c>
       <c r="K126" t="n">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="L126" t="n">
         <v>409.7</v>
@@ -6705,7 +6727,7 @@
         <v>125</v>
       </c>
       <c r="K127" t="n">
-        <v>-62.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L127" t="n">
         <v>409.3</v>
@@ -6756,7 +6778,7 @@
         <v>126</v>
       </c>
       <c r="K128" t="n">
-        <v>-60</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L128" t="n">
         <v>408.8</v>
@@ -6858,7 +6880,7 @@
         <v>128</v>
       </c>
       <c r="K130" t="n">
-        <v>-52.94117647058824</v>
+        <v>-75</v>
       </c>
       <c r="L130" t="n">
         <v>407.9</v>
@@ -6909,7 +6931,7 @@
         <v>129</v>
       </c>
       <c r="K131" t="n">
-        <v>-62.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L131" t="n">
         <v>407.4</v>
@@ -6960,7 +6982,7 @@
         <v>131</v>
       </c>
       <c r="K132" t="n">
-        <v>-41.17647058823529</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L132" t="n">
         <v>407.1</v>
@@ -7011,7 +7033,7 @@
         <v>132</v>
       </c>
       <c r="K133" t="n">
-        <v>-37.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L133" t="n">
         <v>406.7</v>
@@ -7062,7 +7084,7 @@
         <v>132</v>
       </c>
       <c r="K134" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L134" t="n">
         <v>406.6</v>
@@ -7113,7 +7135,7 @@
         <v>137</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L135" t="n">
         <v>407</v>
@@ -7164,7 +7186,7 @@
         <v>139</v>
       </c>
       <c r="K136" t="n">
-        <v>-4.761904761904762</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L136" t="n">
         <v>407.2</v>
@@ -7215,7 +7237,7 @@
         <v>143</v>
       </c>
       <c r="K137" t="n">
-        <v>16.66666666666666</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L137" t="n">
         <v>408</v>
@@ -7266,7 +7288,7 @@
         <v>147</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L138" t="n">
         <v>408.5</v>
@@ -7317,7 +7339,7 @@
         <v>149</v>
       </c>
       <c r="K139" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>409.1</v>
@@ -7368,7 +7390,7 @@
         <v>151</v>
       </c>
       <c r="K140" t="n">
-        <v>12.5</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L140" t="n">
         <v>410</v>
@@ -7419,7 +7441,7 @@
         <v>152</v>
       </c>
       <c r="K141" t="n">
-        <v>6.25</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L141" t="n">
         <v>410.7</v>
@@ -7470,7 +7492,7 @@
         <v>157</v>
       </c>
       <c r="K142" t="n">
-        <v>18.91891891891892</v>
+        <v>44</v>
       </c>
       <c r="L142" t="n">
         <v>411.7</v>
@@ -7521,7 +7543,7 @@
         <v>161</v>
       </c>
       <c r="K143" t="n">
-        <v>26.82926829268293</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L143" t="n">
         <v>413.2</v>
@@ -7572,7 +7594,7 @@
         <v>168</v>
       </c>
       <c r="K144" t="n">
-        <v>46.66666666666666</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L144" t="n">
         <v>415.4</v>
@@ -7623,7 +7645,7 @@
         <v>169</v>
       </c>
       <c r="K145" t="n">
-        <v>43.47826086956522</v>
+        <v>60</v>
       </c>
       <c r="L145" t="n">
         <v>417</v>
@@ -7674,7 +7696,7 @@
         <v>171</v>
       </c>
       <c r="K146" t="n">
-        <v>37.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L146" t="n">
         <v>418.6</v>
@@ -7725,7 +7747,7 @@
         <v>173</v>
       </c>
       <c r="K147" t="n">
-        <v>45.83333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L147" t="n">
         <v>420</v>
@@ -7776,7 +7798,7 @@
         <v>173</v>
       </c>
       <c r="K148" t="n">
-        <v>48.93617021276596</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L148" t="n">
         <v>421.8</v>
@@ -7827,7 +7849,7 @@
         <v>175</v>
       </c>
       <c r="K149" t="n">
-        <v>41.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="L149" t="n">
         <v>423.2</v>
@@ -7878,7 +7900,7 @@
         <v>177</v>
       </c>
       <c r="K150" t="n">
-        <v>46.93877551020408</v>
+        <v>60</v>
       </c>
       <c r="L150" t="n">
         <v>424.6</v>
@@ -7929,7 +7951,7 @@
         <v>177</v>
       </c>
       <c r="K151" t="n">
-        <v>45.83333333333333</v>
+        <v>50</v>
       </c>
       <c r="L151" t="n">
         <v>426.1</v>
@@ -7980,7 +8002,7 @@
         <v>178</v>
       </c>
       <c r="K152" t="n">
-        <v>40.42553191489361</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L152" t="n">
         <v>427</v>
@@ -8031,7 +8053,7 @@
         <v>178</v>
       </c>
       <c r="K153" t="n">
-        <v>43.47826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>427.5</v>
@@ -8082,7 +8104,7 @@
         <v>179</v>
       </c>
       <c r="K154" t="n">
-        <v>44.68085106382978</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>427.4</v>
@@ -8133,7 +8155,7 @@
         <v>180</v>
       </c>
       <c r="K155" t="n">
-        <v>39.53488372093023</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>427.5</v>
@@ -8184,7 +8206,7 @@
         <v>180</v>
       </c>
       <c r="K156" t="n">
-        <v>46.34146341463415</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L156" t="n">
         <v>427.8</v>
@@ -8235,7 +8257,7 @@
         <v>182</v>
       </c>
       <c r="K157" t="n">
-        <v>43.58974358974359</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>428.1</v>
@@ -8286,7 +8308,7 @@
         <v>183</v>
       </c>
       <c r="K158" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="L158" t="n">
         <v>428.3</v>
@@ -8337,7 +8359,7 @@
         <v>184</v>
       </c>
       <c r="K159" t="n">
-        <v>48.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L159" t="n">
         <v>428.6</v>
@@ -8388,7 +8410,7 @@
         <v>185</v>
       </c>
       <c r="K160" t="n">
-        <v>41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>428.6</v>
@@ -8439,7 +8461,7 @@
         <v>186</v>
       </c>
       <c r="K161" t="n">
-        <v>41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>428.5</v>
@@ -8490,7 +8512,7 @@
         <v>186</v>
       </c>
       <c r="K162" t="n">
-        <v>31.03448275862069</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>428.5</v>
@@ -8541,7 +8563,7 @@
         <v>186</v>
       </c>
       <c r="K163" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L163" t="n">
         <v>428.5</v>
@@ -8592,7 +8614,7 @@
         <v>186</v>
       </c>
       <c r="K164" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>428.4</v>
@@ -8643,7 +8665,7 @@
         <v>188</v>
       </c>
       <c r="K165" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>428.4</v>
@@ -8694,7 +8716,7 @@
         <v>190</v>
       </c>
       <c r="K166" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>428.6</v>
@@ -8745,7 +8767,7 @@
         <v>193</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L167" t="n">
         <v>428.3</v>
@@ -8796,7 +8818,7 @@
         <v>193</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L168" t="n">
         <v>428.1</v>
@@ -8847,7 +8869,7 @@
         <v>196</v>
       </c>
       <c r="K169" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L169" t="n">
         <v>428.3</v>
@@ -8898,7 +8920,7 @@
         <v>199</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L170" t="n">
         <v>428.3</v>
@@ -8949,7 +8971,7 @@
         <v>203</v>
       </c>
       <c r="K171" t="n">
-        <v>15.38461538461539</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L171" t="n">
         <v>428.8</v>
@@ -9000,7 +9022,7 @@
         <v>204</v>
       </c>
       <c r="K172" t="n">
-        <v>15.38461538461539</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L172" t="n">
         <v>429.2</v>
@@ -9051,7 +9073,7 @@
         <v>205</v>
       </c>
       <c r="K173" t="n">
-        <v>18.51851851851852</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L173" t="n">
         <v>429.7</v>
@@ -9102,7 +9124,7 @@
         <v>206</v>
       </c>
       <c r="K174" t="n">
-        <v>18.51851851851852</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L174" t="n">
         <v>430.3</v>
@@ -9153,7 +9175,7 @@
         <v>206</v>
       </c>
       <c r="K175" t="n">
-        <v>15.38461538461539</v>
+        <v>12.5</v>
       </c>
       <c r="L175" t="n">
         <v>430.7</v>
@@ -9204,7 +9226,7 @@
         <v>207</v>
       </c>
       <c r="K176" t="n">
-        <v>11.11111111111111</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L176" t="n">
         <v>430.8</v>
@@ -9255,7 +9277,7 @@
         <v>210</v>
       </c>
       <c r="K177" t="n">
-        <v>14.28571428571428</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L177" t="n">
         <v>431.5</v>
@@ -9306,7 +9328,7 @@
         <v>210</v>
       </c>
       <c r="K178" t="n">
-        <v>18.51851851851852</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L178" t="n">
         <v>432.2</v>
@@ -9357,7 +9379,7 @@
         <v>212</v>
       </c>
       <c r="K179" t="n">
-        <v>14.28571428571428</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L179" t="n">
         <v>432.4</v>
@@ -9408,7 +9430,7 @@
         <v>213</v>
       </c>
       <c r="K180" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>432.8</v>
@@ -9459,7 +9481,7 @@
         <v>215</v>
       </c>
       <c r="K181" t="n">
-        <v>24.13793103448276</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L181" t="n">
         <v>433</v>
@@ -9510,7 +9532,7 @@
         <v>217</v>
       </c>
       <c r="K182" t="n">
-        <v>16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>433.1</v>
@@ -9561,7 +9583,7 @@
         <v>218</v>
       </c>
       <c r="K183" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>433.2</v>
@@ -9612,7 +9634,7 @@
         <v>220</v>
       </c>
       <c r="K184" t="n">
-        <v>23.52941176470588</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L184" t="n">
         <v>433.4</v>
@@ -9663,7 +9685,7 @@
         <v>220</v>
       </c>
       <c r="K185" t="n">
-        <v>18.75</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L185" t="n">
         <v>433.6</v>
@@ -9714,7 +9736,7 @@
         <v>223</v>
       </c>
       <c r="K186" t="n">
-        <v>21.21212121212121</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L186" t="n">
         <v>434.2</v>
@@ -9765,7 +9787,7 @@
         <v>223</v>
       </c>
       <c r="K187" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L187" t="n">
         <v>434.5</v>
@@ -9816,7 +9838,7 @@
         <v>225</v>
       </c>
       <c r="K188" t="n">
-        <v>25</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L188" t="n">
         <v>434.6</v>
@@ -9867,7 +9889,7 @@
         <v>227</v>
       </c>
       <c r="K189" t="n">
-        <v>22.58064516129032</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L189" t="n">
         <v>435.1</v>
@@ -9918,7 +9940,7 @@
         <v>227</v>
       </c>
       <c r="K190" t="n">
-        <v>35.71428571428572</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>435.7</v>
@@ -9969,7 +9991,7 @@
         <v>230</v>
       </c>
       <c r="K191" t="n">
-        <v>33.33333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L191" t="n">
         <v>436.4</v>
@@ -10020,7 +10042,7 @@
         <v>231</v>
       </c>
       <c r="K192" t="n">
-        <v>40.74074074074074</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L192" t="n">
         <v>437.4</v>
@@ -10071,7 +10093,7 @@
         <v>232</v>
       </c>
       <c r="K193" t="n">
-        <v>40.74074074074074</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L193" t="n">
         <v>438.4</v>
@@ -10122,7 +10144,7 @@
         <v>232</v>
       </c>
       <c r="K194" t="n">
-        <v>38.46153846153847</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L194" t="n">
         <v>439.2</v>
@@ -10173,7 +10195,7 @@
         <v>234</v>
       </c>
       <c r="K195" t="n">
-        <v>28.57142857142857</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L195" t="n">
         <v>439.8</v>
@@ -10224,7 +10246,7 @@
         <v>235</v>
       </c>
       <c r="K196" t="n">
-        <v>28.57142857142857</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L196" t="n">
         <v>440</v>
@@ -10275,7 +10297,7 @@
         <v>236</v>
       </c>
       <c r="K197" t="n">
-        <v>15.38461538461539</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L197" t="n">
         <v>440.1</v>
@@ -10326,7 +10348,7 @@
         <v>237</v>
       </c>
       <c r="K198" t="n">
-        <v>18.51851851851852</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>440.5</v>
@@ -10377,7 +10399,7 @@
         <v>237</v>
       </c>
       <c r="K199" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L199" t="n">
         <v>440.7</v>
@@ -10428,7 +10450,7 @@
         <v>238</v>
       </c>
       <c r="K200" t="n">
-        <v>28</v>
+        <v>-25</v>
       </c>
       <c r="L200" t="n">
         <v>440.8</v>
@@ -10479,7 +10501,7 @@
         <v>243</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L201" t="n">
         <v>440.1</v>
@@ -10530,7 +10552,7 @@
         <v>243</v>
       </c>
       <c r="K202" t="n">
-        <v>7.692307692307693</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L202" t="n">
         <v>439.3</v>
@@ -10581,7 +10603,7 @@
         <v>245</v>
       </c>
       <c r="K203" t="n">
-        <v>11.11111111111111</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L203" t="n">
         <v>438.6</v>
@@ -10632,7 +10654,7 @@
         <v>246</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L204" t="n">
         <v>437.8</v>
@@ -10683,7 +10705,7 @@
         <v>247</v>
       </c>
       <c r="K205" t="n">
-        <v>-3.703703703703703</v>
+        <v>-50</v>
       </c>
       <c r="L205" t="n">
         <v>437.1</v>
@@ -10734,7 +10756,7 @@
         <v>250</v>
       </c>
       <c r="K206" t="n">
-        <v>-25.92592592592592</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L206" t="n">
         <v>436.2</v>
@@ -10785,7 +10807,7 @@
         <v>254</v>
       </c>
       <c r="K207" t="n">
-        <v>-9.67741935483871</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L207" t="n">
         <v>435.8</v>
@@ -10836,7 +10858,7 @@
         <v>258</v>
       </c>
       <c r="K208" t="n">
-        <v>-15.15151515151515</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L208" t="n">
         <v>434.9</v>
@@ -10887,7 +10909,7 @@
         <v>260</v>
       </c>
       <c r="K209" t="n">
-        <v>-15.15151515151515</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L209" t="n">
         <v>434.2</v>
@@ -10938,7 +10960,7 @@
         <v>262</v>
       </c>
       <c r="K210" t="n">
-        <v>-20</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L210" t="n">
         <v>433.4</v>
@@ -10989,7 +11011,7 @@
         <v>263</v>
       </c>
       <c r="K211" t="n">
-        <v>-27.27272727272727</v>
+        <v>-10</v>
       </c>
       <c r="L211" t="n">
         <v>433.2</v>
@@ -11040,7 +11062,7 @@
         <v>265</v>
       </c>
       <c r="K212" t="n">
-        <v>-35.29411764705883</v>
+        <v>-30</v>
       </c>
       <c r="L212" t="n">
         <v>432.8</v>
@@ -11091,7 +11113,7 @@
         <v>267</v>
       </c>
       <c r="K213" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>432</v>
@@ -11142,7 +11164,7 @@
         <v>267</v>
       </c>
       <c r="K214" t="n">
-        <v>-42.85714285714285</v>
+        <v>-30</v>
       </c>
       <c r="L214" t="n">
         <v>431.3</v>
@@ -11193,7 +11215,7 @@
         <v>268</v>
       </c>
       <c r="K215" t="n">
-        <v>-41.17647058823529</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L215" t="n">
         <v>430.6</v>
@@ -11244,7 +11266,7 @@
         <v>269</v>
       </c>
       <c r="K216" t="n">
-        <v>-41.17647058823529</v>
+        <v>-60</v>
       </c>
       <c r="L216" t="n">
         <v>430.1</v>
@@ -11295,7 +11317,7 @@
         <v>271</v>
       </c>
       <c r="K217" t="n">
-        <v>-31.42857142857143</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L217" t="n">
         <v>429.4</v>
@@ -11346,7 +11368,7 @@
         <v>273</v>
       </c>
       <c r="K218" t="n">
-        <v>-38.88888888888889</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L218" t="n">
         <v>428.9</v>
@@ -11397,7 +11419,7 @@
         <v>273</v>
       </c>
       <c r="K219" t="n">
-        <v>-38.88888888888889</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L219" t="n">
         <v>428.2</v>
@@ -11448,7 +11470,7 @@
         <v>273</v>
       </c>
       <c r="K220" t="n">
-        <v>-37.14285714285715</v>
+        <v>-60</v>
       </c>
       <c r="L220" t="n">
         <v>427.7</v>
@@ -11499,7 +11521,7 @@
         <v>275</v>
       </c>
       <c r="K221" t="n">
-        <v>-31.25</v>
+        <v>-60</v>
       </c>
       <c r="L221" t="n">
         <v>426.9</v>
@@ -11550,7 +11572,7 @@
         <v>277</v>
       </c>
       <c r="K222" t="n">
-        <v>-23.52941176470588</v>
+        <v>-20</v>
       </c>
       <c r="L222" t="n">
         <v>426.5</v>
@@ -11601,7 +11623,7 @@
         <v>280</v>
       </c>
       <c r="K223" t="n">
-        <v>-20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L223" t="n">
         <v>426.6</v>
@@ -11652,7 +11674,7 @@
         <v>282</v>
       </c>
       <c r="K224" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>426.5</v>
@@ -11703,7 +11725,7 @@
         <v>283</v>
       </c>
       <c r="K225" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L225" t="n">
         <v>426.6</v>
@@ -11754,7 +11776,7 @@
         <v>284</v>
       </c>
       <c r="K226" t="n">
-        <v>-11.76470588235294</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L226" t="n">
         <v>426.7</v>
@@ -11805,7 +11827,7 @@
         <v>285</v>
       </c>
       <c r="K227" t="n">
-        <v>-22.58064516129032</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L227" t="n">
         <v>426.7</v>
@@ -11856,7 +11878,7 @@
         <v>286</v>
       </c>
       <c r="K228" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L228" t="n">
         <v>426.8</v>
@@ -11907,7 +11929,7 @@
         <v>286</v>
       </c>
       <c r="K229" t="n">
-        <v>-23.07692307692308</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L229" t="n">
         <v>426.9</v>
@@ -11958,7 +11980,7 @@
         <v>288</v>
       </c>
       <c r="K230" t="n">
-        <v>-7.692307692307693</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L230" t="n">
         <v>427.2</v>
@@ -12009,7 +12031,7 @@
         <v>288</v>
       </c>
       <c r="K231" t="n">
-        <v>-12</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L231" t="n">
         <v>427.7</v>
@@ -12060,7 +12082,7 @@
         <v>291</v>
       </c>
       <c r="K232" t="n">
-        <v>-15.38461538461539</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L232" t="n">
         <v>427.7</v>
@@ -12111,7 +12133,7 @@
         <v>294</v>
       </c>
       <c r="K233" t="n">
-        <v>3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L233" t="n">
         <v>427.7</v>
@@ -12162,7 +12184,7 @@
         <v>296</v>
       </c>
       <c r="K234" t="n">
-        <v>-3.448275862068965</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L234" t="n">
         <v>427.7</v>
@@ -12264,7 +12286,7 @@
         <v>297</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L236" t="n">
         <v>427.5</v>
@@ -12315,7 +12337,7 @@
         <v>297</v>
       </c>
       <c r="K237" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L237" t="n">
         <v>427.3</v>
@@ -12366,7 +12388,7 @@
         <v>298</v>
       </c>
       <c r="K238" t="n">
-        <v>-4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L238" t="n">
         <v>427.1</v>
@@ -12417,7 +12439,7 @@
         <v>298</v>
       </c>
       <c r="K239" t="n">
-        <v>-4</v>
+        <v>-40</v>
       </c>
       <c r="L239" t="n">
         <v>426.9</v>
@@ -12468,7 +12490,7 @@
         <v>298</v>
       </c>
       <c r="K240" t="n">
-        <v>-4</v>
+        <v>-40</v>
       </c>
       <c r="L240" t="n">
         <v>426.5</v>
@@ -12519,7 +12541,7 @@
         <v>302</v>
       </c>
       <c r="K241" t="n">
-        <v>18.51851851851852</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L241" t="n">
         <v>426.5</v>
@@ -12570,7 +12592,7 @@
         <v>302</v>
       </c>
       <c r="K242" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>426.8</v>
@@ -12621,7 +12643,7 @@
         <v>303</v>
       </c>
       <c r="K243" t="n">
-        <v>4.347826086956522</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L243" t="n">
         <v>426.9</v>
@@ -12672,7 +12694,7 @@
         <v>304</v>
       </c>
       <c r="K244" t="n">
-        <v>18.18181818181818</v>
+        <v>50</v>
       </c>
       <c r="L244" t="n">
         <v>427.3</v>
@@ -12723,7 +12745,7 @@
         <v>304</v>
       </c>
       <c r="K245" t="n">
-        <v>14.28571428571428</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L245" t="n">
         <v>427.7</v>
@@ -12774,7 +12796,7 @@
         <v>307</v>
       </c>
       <c r="K246" t="n">
-        <v>30.43478260869566</v>
+        <v>80</v>
       </c>
       <c r="L246" t="n">
         <v>428.5</v>
@@ -12825,7 +12847,7 @@
         <v>307</v>
       </c>
       <c r="K247" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L247" t="n">
         <v>429.3</v>
@@ -12876,7 +12898,7 @@
         <v>310</v>
       </c>
       <c r="K248" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L248" t="n">
         <v>429.9</v>
@@ -12927,7 +12949,7 @@
         <v>315</v>
       </c>
       <c r="K249" t="n">
-        <v>-3.448275862068965</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L249" t="n">
         <v>430</v>
@@ -12978,7 +13000,7 @@
         <v>315</v>
       </c>
       <c r="K250" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L250" t="n">
         <v>430.1</v>
@@ -13029,7 +13051,7 @@
         <v>319</v>
       </c>
       <c r="K251" t="n">
-        <v>3.225806451612903</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L251" t="n">
         <v>430.2</v>
@@ -13080,7 +13102,7 @@
         <v>322</v>
       </c>
       <c r="K252" t="n">
-        <v>3.225806451612903</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L252" t="n">
         <v>430</v>
@@ -13131,7 +13153,7 @@
         <v>323</v>
       </c>
       <c r="K253" t="n">
-        <v>-10.3448275862069</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L253" t="n">
         <v>429.6</v>
@@ -13182,7 +13204,7 @@
         <v>323</v>
       </c>
       <c r="K254" t="n">
-        <v>-3.703703703703703</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L254" t="n">
         <v>429.1</v>
@@ -13233,7 +13255,7 @@
         <v>327</v>
       </c>
       <c r="K255" t="n">
-        <v>9.67741935483871</v>
+        <v>-20</v>
       </c>
       <c r="L255" t="n">
         <v>429</v>
@@ -13284,7 +13306,7 @@
         <v>330</v>
       </c>
       <c r="K256" t="n">
-        <v>3.03030303030303</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L256" t="n">
         <v>428.3</v>
@@ -13335,7 +13357,7 @@
         <v>332</v>
       </c>
       <c r="K257" t="n">
-        <v>-2.857142857142857</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L257" t="n">
         <v>427.4</v>
@@ -13386,7 +13408,7 @@
         <v>332</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L258" t="n">
         <v>426.8</v>
@@ -13437,7 +13459,7 @@
         <v>337</v>
       </c>
       <c r="K259" t="n">
-        <v>12.82051282051282</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L259" t="n">
         <v>427.2</v>
@@ -13488,7 +13510,7 @@
         <v>337</v>
       </c>
       <c r="K260" t="n">
-        <v>12.82051282051282</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>427.6</v>
@@ -13539,7 +13561,7 @@
         <v>337</v>
       </c>
       <c r="K261" t="n">
-        <v>2.857142857142857</v>
+        <v>20</v>
       </c>
       <c r="L261" t="n">
         <v>427.6</v>
@@ -13590,7 +13612,7 @@
         <v>337</v>
       </c>
       <c r="K262" t="n">
-        <v>2.857142857142857</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L262" t="n">
         <v>427.9</v>
@@ -13641,7 +13663,7 @@
         <v>337</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L263" t="n">
         <v>428.3</v>
@@ -13692,7 +13714,7 @@
         <v>338</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L264" t="n">
         <v>428.8</v>
@@ -13743,7 +13765,7 @@
         <v>338</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L265" t="n">
         <v>428.9</v>
@@ -13794,7 +13816,7 @@
         <v>339</v>
       </c>
       <c r="K266" t="n">
-        <v>-12.5</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L266" t="n">
         <v>429.2</v>
@@ -13845,7 +13867,7 @@
         <v>339</v>
       </c>
       <c r="K267" t="n">
-        <v>-12.5</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L267" t="n">
         <v>429.7</v>
@@ -13896,7 +13918,7 @@
         <v>339</v>
       </c>
       <c r="K268" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>430.2</v>
@@ -13947,7 +13969,7 @@
         <v>340</v>
       </c>
       <c r="K269" t="n">
-        <v>12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>430.1</v>
@@ -13998,7 +14020,7 @@
         <v>343</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L270" t="n">
         <v>429.7</v>
@@ -14049,7 +14071,7 @@
         <v>346</v>
       </c>
       <c r="K271" t="n">
-        <v>-3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L271" t="n">
         <v>429.6</v>
@@ -14100,7 +14122,7 @@
         <v>350</v>
       </c>
       <c r="K272" t="n">
-        <v>-7.142857142857142</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L272" t="n">
         <v>429.1</v>
@@ -14151,7 +14173,7 @@
         <v>355</v>
       </c>
       <c r="K273" t="n">
-        <v>12.5</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L273" t="n">
         <v>429.1</v>
@@ -14202,7 +14224,7 @@
         <v>355</v>
       </c>
       <c r="K274" t="n">
-        <v>12.5</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L274" t="n">
         <v>429</v>
@@ -14253,7 +14275,7 @@
         <v>359</v>
       </c>
       <c r="K275" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L275" t="n">
         <v>428.5</v>
@@ -14304,7 +14326,7 @@
         <v>360</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L276" t="n">
         <v>428.2</v>
@@ -14355,7 +14377,7 @@
         <v>361</v>
       </c>
       <c r="K277" t="n">
-        <v>3.448275862068965</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L277" t="n">
         <v>427.8</v>
@@ -14406,7 +14428,7 @@
         <v>361</v>
       </c>
       <c r="K278" t="n">
-        <v>3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L278" t="n">
         <v>427.4</v>
@@ -14457,7 +14479,7 @@
         <v>361</v>
       </c>
       <c r="K279" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>427.1</v>
@@ -14508,7 +14530,7 @@
         <v>361</v>
       </c>
       <c r="K280" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L280" t="n">
         <v>427.1</v>
@@ -14559,7 +14581,7 @@
         <v>361</v>
       </c>
       <c r="K281" t="n">
-        <v>-16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L281" t="n">
         <v>426.8</v>
@@ -14610,7 +14632,7 @@
         <v>361</v>
       </c>
       <c r="K282" t="n">
-        <v>-16.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L282" t="n">
         <v>426.9</v>
@@ -14661,7 +14683,7 @@
         <v>363</v>
       </c>
       <c r="K283" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L283" t="n">
         <v>426.7</v>
@@ -14712,7 +14734,7 @@
         <v>365</v>
       </c>
       <c r="K284" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>426.3</v>
@@ -14763,7 +14785,7 @@
         <v>366</v>
       </c>
       <c r="K285" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>426.4</v>
@@ -14814,7 +14836,7 @@
         <v>367</v>
       </c>
       <c r="K286" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>426.3</v>
@@ -14865,7 +14887,7 @@
         <v>367</v>
       </c>
       <c r="K287" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>426.3</v>
@@ -14916,7 +14938,7 @@
         <v>368</v>
       </c>
       <c r="K288" t="n">
-        <v>-17.24137931034483</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L288" t="n">
         <v>426.2</v>
@@ -15018,7 +15040,7 @@
         <v>369</v>
       </c>
       <c r="K290" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L290" t="n">
         <v>425.9</v>
@@ -15069,7 +15091,7 @@
         <v>370</v>
       </c>
       <c r="K291" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>425.6</v>
@@ -15120,7 +15142,7 @@
         <v>375</v>
       </c>
       <c r="K292" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>425.8</v>
@@ -15171,7 +15193,7 @@
         <v>378</v>
       </c>
       <c r="K293" t="n">
-        <v>-21.73913043478261</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L293" t="n">
         <v>425.5</v>
@@ -15222,7 +15244,7 @@
         <v>380</v>
       </c>
       <c r="K294" t="n">
-        <v>-28</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L294" t="n">
         <v>425.2</v>
@@ -15273,7 +15295,7 @@
         <v>381</v>
       </c>
       <c r="K295" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L295" t="n">
         <v>424.9</v>
@@ -15375,7 +15397,7 @@
         <v>381</v>
       </c>
       <c r="K297" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L297" t="n">
         <v>424.5</v>
@@ -15477,7 +15499,7 @@
         <v>382</v>
       </c>
       <c r="K299" t="n">
-        <v>-14.28571428571428</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L299" t="n">
         <v>424.1</v>
@@ -15528,7 +15550,7 @@
         <v>385</v>
       </c>
       <c r="K300" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L300" t="n">
         <v>423.7</v>
@@ -15579,7 +15601,7 @@
         <v>385</v>
       </c>
       <c r="K301" t="n">
-        <v>-25</v>
+        <v>-80</v>
       </c>
       <c r="L301" t="n">
         <v>423.4</v>
@@ -15630,7 +15652,7 @@
         <v>386</v>
       </c>
       <c r="K302" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L302" t="n">
         <v>422.7</v>
@@ -15681,7 +15703,7 @@
         <v>386</v>
       </c>
       <c r="K303" t="n">
-        <v>-30.43478260869566</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>422.3</v>
@@ -15732,7 +15754,7 @@
         <v>386</v>
       </c>
       <c r="K304" t="n">
-        <v>-23.80952380952381</v>
+        <v>-60</v>
       </c>
       <c r="L304" t="n">
         <v>422.1</v>
@@ -15783,7 +15805,7 @@
         <v>386</v>
       </c>
       <c r="K305" t="n">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="L305" t="n">
         <v>421.8</v>
@@ -15834,7 +15856,7 @@
         <v>386</v>
       </c>
       <c r="K306" t="n">
-        <v>-26.31578947368421</v>
+        <v>-60</v>
       </c>
       <c r="L306" t="n">
         <v>421.5</v>
@@ -15885,7 +15907,7 @@
         <v>386</v>
       </c>
       <c r="K307" t="n">
-        <v>-26.31578947368421</v>
+        <v>-50</v>
       </c>
       <c r="L307" t="n">
         <v>421.2</v>
@@ -15936,7 +15958,7 @@
         <v>386</v>
       </c>
       <c r="K308" t="n">
-        <v>-22.22222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L308" t="n">
         <v>421</v>
@@ -15987,7 +16009,7 @@
         <v>389</v>
       </c>
       <c r="K309" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L309" t="n">
         <v>420.5</v>
@@ -16038,7 +16060,7 @@
         <v>390</v>
       </c>
       <c r="K310" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L310" t="n">
         <v>420.4</v>
@@ -16089,7 +16111,7 @@
         <v>390</v>
       </c>
       <c r="K311" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L311" t="n">
         <v>420.3</v>
@@ -16140,7 +16162,7 @@
         <v>390</v>
       </c>
       <c r="K312" t="n">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="L312" t="n">
         <v>420.1</v>
@@ -16191,7 +16213,7 @@
         <v>393</v>
       </c>
       <c r="K313" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L313" t="n">
         <v>420.2</v>
@@ -16242,7 +16264,7 @@
         <v>393</v>
       </c>
       <c r="K314" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L314" t="n">
         <v>420.3</v>
@@ -16293,7 +16315,7 @@
         <v>394</v>
       </c>
       <c r="K315" t="n">
-        <v>-7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L315" t="n">
         <v>420.5</v>
@@ -16344,7 +16366,7 @@
         <v>398</v>
       </c>
       <c r="K316" t="n">
-        <v>-29.41176470588236</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L316" t="n">
         <v>420.3</v>
@@ -16395,7 +16417,7 @@
         <v>404</v>
       </c>
       <c r="K317" t="n">
-        <v>4.347826086956522</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L317" t="n">
         <v>420.7</v>
@@ -16446,7 +16468,7 @@
         <v>405</v>
       </c>
       <c r="K318" t="n">
-        <v>4.347826086956522</v>
+        <v>37.5</v>
       </c>
       <c r="L318" t="n">
         <v>421</v>
@@ -16497,7 +16519,7 @@
         <v>406</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L319" t="n">
         <v>421.5</v>
@@ -16548,7 +16570,7 @@
         <v>407</v>
       </c>
       <c r="K320" t="n">
-        <v>18.18181818181818</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L320" t="n">
         <v>422</v>
@@ -16599,7 +16621,7 @@
         <v>407</v>
       </c>
       <c r="K321" t="n">
-        <v>18.18181818181818</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L321" t="n">
         <v>422.5</v>
@@ -16650,7 +16672,7 @@
         <v>411</v>
       </c>
       <c r="K322" t="n">
-        <v>-4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L322" t="n">
         <v>422.6</v>
@@ -16701,7 +16723,7 @@
         <v>412</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L323" t="n">
         <v>422.5</v>
@@ -16752,7 +16774,7 @@
         <v>417</v>
       </c>
       <c r="K324" t="n">
-        <v>-16.12903225806452</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L324" t="n">
         <v>421.9</v>
@@ -16803,7 +16825,7 @@
         <v>422</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L325" t="n">
         <v>421.7</v>
@@ -16854,7 +16876,7 @@
         <v>423</v>
       </c>
       <c r="K326" t="n">
-        <v>-2.702702702702703</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L326" t="n">
         <v>421.8</v>
@@ -16905,7 +16927,7 @@
         <v>423</v>
       </c>
       <c r="K327" t="n">
-        <v>-2.702702702702703</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L327" t="n">
         <v>421.3</v>
@@ -16956,7 +16978,7 @@
         <v>423</v>
       </c>
       <c r="K328" t="n">
-        <v>-2.702702702702703</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L328" t="n">
         <v>420.9</v>
@@ -17007,7 +17029,7 @@
         <v>424</v>
       </c>
       <c r="K329" t="n">
-        <v>8.571428571428571</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L329" t="n">
         <v>420.7</v>
@@ -17058,7 +17080,7 @@
         <v>425</v>
       </c>
       <c r="K330" t="n">
-        <v>8.571428571428571</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L330" t="n">
         <v>420.5</v>
@@ -17109,7 +17131,7 @@
         <v>425</v>
       </c>
       <c r="K331" t="n">
-        <v>8.571428571428571</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L331" t="n">
         <v>420.3</v>
@@ -17160,7 +17182,7 @@
         <v>429</v>
       </c>
       <c r="K332" t="n">
-        <v>-2.564102564102564</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L332" t="n">
         <v>420.1</v>
@@ -17211,7 +17233,7 @@
         <v>429</v>
       </c>
       <c r="K333" t="n">
-        <v>-11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L333" t="n">
         <v>419.8</v>
@@ -17262,7 +17284,7 @@
         <v>431</v>
       </c>
       <c r="K334" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L334" t="n">
         <v>420.2</v>
@@ -17313,7 +17335,7 @@
         <v>432</v>
       </c>
       <c r="K335" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L335" t="n">
         <v>420.2</v>
@@ -17364,7 +17386,7 @@
         <v>433</v>
       </c>
       <c r="K336" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>420.2</v>
@@ -17415,7 +17437,7 @@
         <v>436</v>
       </c>
       <c r="K337" t="n">
-        <v>-6.25</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L337" t="n">
         <v>420.5</v>
@@ -17466,7 +17488,7 @@
         <v>437</v>
       </c>
       <c r="K338" t="n">
-        <v>-6.25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L338" t="n">
         <v>420.7</v>
@@ -17517,7 +17539,7 @@
         <v>438</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L339" t="n">
         <v>420.9</v>
@@ -17568,7 +17590,7 @@
         <v>442</v>
       </c>
       <c r="K340" t="n">
-        <v>-14.28571428571428</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L340" t="n">
         <v>420.6</v>
@@ -17619,7 +17641,7 @@
         <v>442</v>
       </c>
       <c r="K341" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L341" t="n">
         <v>420.3</v>
@@ -17670,7 +17692,7 @@
         <v>445</v>
       </c>
       <c r="K342" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L342" t="n">
         <v>420.7</v>
@@ -17721,7 +17743,7 @@
         <v>448</v>
       </c>
       <c r="K343" t="n">
-        <v>-5.555555555555555</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L343" t="n">
         <v>420.8</v>
@@ -17772,7 +17794,7 @@
         <v>449</v>
       </c>
       <c r="K344" t="n">
-        <v>12.5</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L344" t="n">
         <v>420.8</v>
@@ -17823,7 +17845,7 @@
         <v>450</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L345" t="n">
         <v>420.8</v>
@@ -17874,7 +17896,7 @@
         <v>450</v>
       </c>
       <c r="K346" t="n">
-        <v>3.703703703703703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L346" t="n">
         <v>420.9</v>
@@ -17925,7 +17947,7 @@
         <v>450</v>
       </c>
       <c r="K347" t="n">
-        <v>3.703703703703703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L347" t="n">
         <v>420.7</v>
@@ -17976,7 +17998,7 @@
         <v>451</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L348" t="n">
         <v>420.5</v>
@@ -18027,7 +18049,7 @@
         <v>451</v>
       </c>
       <c r="K349" t="n">
-        <v>-3.703703703703703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L349" t="n">
         <v>420.2</v>
@@ -18078,7 +18100,7 @@
         <v>453</v>
       </c>
       <c r="K350" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L350" t="n">
         <v>420.5</v>
@@ -18129,7 +18151,7 @@
         <v>454</v>
       </c>
       <c r="K351" t="n">
-        <v>3.448275862068965</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L351" t="n">
         <v>420.9</v>
@@ -18180,7 +18202,7 @@
         <v>454</v>
       </c>
       <c r="K352" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L352" t="n">
         <v>421</v>
@@ -18231,7 +18253,7 @@
         <v>454</v>
       </c>
       <c r="K353" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L353" t="n">
         <v>421.4</v>
@@ -18282,7 +18304,7 @@
         <v>454</v>
       </c>
       <c r="K354" t="n">
-        <v>13.04347826086956</v>
+        <v>50</v>
       </c>
       <c r="L354" t="n">
         <v>421.7</v>
@@ -18333,7 +18355,7 @@
         <v>454</v>
       </c>
       <c r="K355" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L355" t="n">
         <v>421.9</v>
@@ -18384,7 +18406,7 @@
         <v>456</v>
       </c>
       <c r="K356" t="n">
-        <v>21.73913043478261</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L356" t="n">
         <v>422.3</v>
@@ -18435,7 +18457,7 @@
         <v>458</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L357" t="n">
         <v>422.5</v>
@@ -18486,7 +18508,7 @@
         <v>458</v>
       </c>
       <c r="K358" t="n">
-        <v>4.761904761904762</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L358" t="n">
         <v>422.8</v>
@@ -18537,7 +18559,7 @@
         <v>458</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L359" t="n">
         <v>423.1</v>
@@ -18639,7 +18661,7 @@
         <v>463</v>
       </c>
       <c r="K361" t="n">
-        <v>42.85714285714285</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L361" t="n">
         <v>423.9</v>
@@ -18690,7 +18712,7 @@
         <v>469</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L362" t="n">
         <v>423.8</v>
@@ -18741,7 +18763,7 @@
         <v>470</v>
       </c>
       <c r="K363" t="n">
-        <v>9.090909090909092</v>
+        <v>-12.5</v>
       </c>
       <c r="L363" t="n">
         <v>423.6</v>
@@ -18792,7 +18814,7 @@
         <v>471</v>
       </c>
       <c r="K364" t="n">
-        <v>9.090909090909092</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L364" t="n">
         <v>423.5</v>
@@ -18843,7 +18865,7 @@
         <v>471</v>
       </c>
       <c r="K365" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L365" t="n">
         <v>423.4</v>
@@ -18894,7 +18916,7 @@
         <v>472</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L366" t="n">
         <v>423</v>
@@ -18945,7 +18967,7 @@
         <v>473</v>
       </c>
       <c r="K367" t="n">
-        <v>4.347826086956522</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L367" t="n">
         <v>422.9</v>
@@ -18996,7 +19018,7 @@
         <v>473</v>
       </c>
       <c r="K368" t="n">
-        <v>9.090909090909092</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L368" t="n">
         <v>422.8</v>
@@ -19047,7 +19069,7 @@
         <v>473</v>
       </c>
       <c r="K369" t="n">
-        <v>9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L369" t="n">
         <v>422.7</v>
@@ -19098,7 +19120,7 @@
         <v>476</v>
       </c>
       <c r="K370" t="n">
-        <v>13.04347826086956</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L370" t="n">
         <v>422.7</v>
@@ -19149,7 +19171,7 @@
         <v>479</v>
       </c>
       <c r="K371" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>422.1</v>
@@ -19200,7 +19222,7 @@
         <v>480</v>
       </c>
       <c r="K372" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L372" t="n">
         <v>422.2</v>
@@ -19251,7 +19273,7 @@
         <v>481</v>
       </c>
       <c r="K373" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>422.3</v>
@@ -19302,7 +19324,7 @@
         <v>484</v>
       </c>
       <c r="K374" t="n">
-        <v>6.666666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L374" t="n">
         <v>422.6</v>
@@ -19353,7 +19375,7 @@
         <v>486</v>
       </c>
       <c r="K375" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L375" t="n">
         <v>422.7</v>
@@ -19404,7 +19426,7 @@
         <v>488</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L376" t="n">
         <v>423.1</v>
@@ -19455,7 +19477,7 @@
         <v>491</v>
       </c>
       <c r="K377" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>423.1</v>
@@ -19506,7 +19528,7 @@
         <v>491</v>
       </c>
       <c r="K378" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>423.1</v>
@@ -19557,7 +19579,7 @@
         <v>491</v>
       </c>
       <c r="K379" t="n">
-        <v>-3.03030303030303</v>
+        <v>-20</v>
       </c>
       <c r="L379" t="n">
         <v>423.1</v>
@@ -19608,7 +19630,7 @@
         <v>493</v>
       </c>
       <c r="K380" t="n">
-        <v>-3.03030303030303</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L380" t="n">
         <v>423</v>
@@ -19659,7 +19681,7 @@
         <v>494</v>
       </c>
       <c r="K381" t="n">
-        <v>-16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>423.1</v>
@@ -19710,7 +19732,7 @@
         <v>494</v>
       </c>
       <c r="K382" t="n">
-        <v>4</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L382" t="n">
         <v>423.1</v>
@@ -19761,7 +19783,7 @@
         <v>494</v>
       </c>
       <c r="K383" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L383" t="n">
         <v>423.2</v>
@@ -19812,7 +19834,7 @@
         <v>494</v>
       </c>
       <c r="K384" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>423</v>
@@ -19863,7 +19885,7 @@
         <v>497</v>
       </c>
       <c r="K385" t="n">
-        <v>15.38461538461539</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L385" t="n">
         <v>423.3</v>
@@ -19914,7 +19936,7 @@
         <v>497</v>
       </c>
       <c r="K386" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L386" t="n">
         <v>423.4</v>
@@ -19965,7 +19987,7 @@
         <v>498</v>
       </c>
       <c r="K387" t="n">
-        <v>12</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L387" t="n">
         <v>423.7</v>
@@ -20016,7 +20038,7 @@
         <v>499</v>
       </c>
       <c r="K388" t="n">
-        <v>15.38461538461539</v>
+        <v>50</v>
       </c>
       <c r="L388" t="n">
         <v>424.1</v>
@@ -20067,7 +20089,7 @@
         <v>499</v>
       </c>
       <c r="K389" t="n">
-        <v>15.38461538461539</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L389" t="n">
         <v>424.5</v>
@@ -20118,7 +20140,7 @@
         <v>499</v>
       </c>
       <c r="K390" t="n">
-        <v>4.347826086956522</v>
+        <v>60</v>
       </c>
       <c r="L390" t="n">
         <v>424.7</v>
@@ -20169,7 +20191,7 @@
         <v>500</v>
       </c>
       <c r="K391" t="n">
-        <v>23.80952380952381</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L391" t="n">
         <v>425.1</v>
@@ -20220,7 +20242,7 @@
         <v>500</v>
       </c>
       <c r="K392" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L392" t="n">
         <v>425.5</v>
@@ -20271,7 +20293,7 @@
         <v>501</v>
       </c>
       <c r="K393" t="n">
-        <v>30</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L393" t="n">
         <v>426</v>
@@ -20322,7 +20344,7 @@
         <v>503</v>
       </c>
       <c r="K394" t="n">
-        <v>26.31578947368421</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L394" t="n">
         <v>426.7</v>
@@ -20373,7 +20395,7 @@
         <v>506</v>
       </c>
       <c r="K395" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L395" t="n">
         <v>426.8</v>
@@ -20424,7 +20446,7 @@
         <v>510</v>
       </c>
       <c r="K396" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L396" t="n">
         <v>427.3</v>
@@ -20475,7 +20497,7 @@
         <v>512</v>
       </c>
       <c r="K397" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L397" t="n">
         <v>427.7</v>
@@ -20526,7 +20548,7 @@
         <v>512</v>
       </c>
       <c r="K398" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L398" t="n">
         <v>428</v>
@@ -20577,7 +20599,7 @@
         <v>513</v>
       </c>
       <c r="K399" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L399" t="n">
         <v>428.2</v>
@@ -20628,7 +20650,7 @@
         <v>513</v>
       </c>
       <c r="K400" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L400" t="n">
         <v>428.4</v>
@@ -20679,7 +20701,7 @@
         <v>513</v>
       </c>
       <c r="K401" t="n">
-        <v>26.31578947368421</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L401" t="n">
         <v>428.5</v>
@@ -20730,7 +20752,7 @@
         <v>513</v>
       </c>
       <c r="K402" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>428.6</v>
@@ -20781,7 +20803,7 @@
         <v>513</v>
       </c>
       <c r="K403" t="n">
-        <v>26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L403" t="n">
         <v>428.6</v>
@@ -20832,7 +20854,7 @@
         <v>514</v>
       </c>
       <c r="K404" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>428.3</v>
@@ -20883,7 +20905,7 @@
         <v>514</v>
       </c>
       <c r="K405" t="n">
-        <v>5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L405" t="n">
         <v>428.3</v>
@@ -20934,7 +20956,7 @@
         <v>514</v>
       </c>
       <c r="K406" t="n">
-        <v>5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L406" t="n">
         <v>427.9</v>
@@ -20985,7 +21007,7 @@
         <v>514</v>
       </c>
       <c r="K407" t="n">
-        <v>12.5</v>
+        <v>-100</v>
       </c>
       <c r="L407" t="n">
         <v>427.7</v>
@@ -21036,7 +21058,7 @@
         <v>514</v>
       </c>
       <c r="K408" t="n">
-        <v>6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L408" t="n">
         <v>427.5</v>
@@ -21087,7 +21109,7 @@
         <v>515</v>
       </c>
       <c r="K409" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>427.5</v>
@@ -21138,7 +21160,7 @@
         <v>516</v>
       </c>
       <c r="K410" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L410" t="n">
         <v>427.6</v>
@@ -21189,7 +21211,7 @@
         <v>518</v>
       </c>
       <c r="K411" t="n">
-        <v>22.22222222222222</v>
+        <v>60</v>
       </c>
       <c r="L411" t="n">
         <v>427.9</v>
@@ -21240,7 +21262,7 @@
         <v>519</v>
       </c>
       <c r="K412" t="n">
-        <v>26.31578947368421</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L412" t="n">
         <v>428.3</v>
@@ -21291,7 +21313,7 @@
         <v>519</v>
       </c>
       <c r="K413" t="n">
-        <v>22.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L413" t="n">
         <v>428.7</v>
@@ -21342,7 +21364,7 @@
         <v>520</v>
       </c>
       <c r="K414" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L414" t="n">
         <v>429.3</v>
@@ -21393,7 +21415,7 @@
         <v>521</v>
       </c>
       <c r="K415" t="n">
-        <v>33.33333333333333</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L415" t="n">
         <v>429.8</v>
@@ -21444,7 +21466,7 @@
         <v>521</v>
       </c>
       <c r="K416" t="n">
-        <v>9.090909090909092</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L416" t="n">
         <v>430.3</v>
@@ -21495,7 +21517,7 @@
         <v>522</v>
       </c>
       <c r="K417" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L417" t="n">
         <v>430.7</v>
@@ -21546,7 +21568,7 @@
         <v>523</v>
       </c>
       <c r="K418" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L418" t="n">
         <v>431.2</v>
@@ -21597,7 +21619,7 @@
         <v>523</v>
       </c>
       <c r="K419" t="n">
-        <v>40</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L419" t="n">
         <v>431.6</v>
@@ -21648,7 +21670,7 @@
         <v>523</v>
       </c>
       <c r="K420" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L420" t="n">
         <v>431.9</v>
@@ -21699,7 +21721,7 @@
         <v>524</v>
       </c>
       <c r="K421" t="n">
-        <v>45.45454545454545</v>
+        <v>20</v>
       </c>
       <c r="L421" t="n">
         <v>432.1</v>
@@ -21750,7 +21772,7 @@
         <v>524</v>
       </c>
       <c r="K422" t="n">
-        <v>45.45454545454545</v>
+        <v>20</v>
       </c>
       <c r="L422" t="n">
         <v>432.2</v>
@@ -21801,7 +21823,7 @@
         <v>524</v>
       </c>
       <c r="K423" t="n">
-        <v>45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>432.3</v>
@@ -21852,7 +21874,7 @@
         <v>524</v>
       </c>
       <c r="K424" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L424" t="n">
         <v>432.3</v>
@@ -21903,7 +21925,7 @@
         <v>527</v>
       </c>
       <c r="K425" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L425" t="n">
         <v>432.1</v>
@@ -21954,7 +21976,7 @@
         <v>527</v>
       </c>
       <c r="K426" t="n">
-        <v>23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L426" t="n">
         <v>431.9</v>
@@ -22005,7 +22027,7 @@
         <v>528</v>
       </c>
       <c r="K427" t="n">
-        <v>14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L427" t="n">
         <v>431.7</v>
@@ -22056,7 +22078,7 @@
         <v>531</v>
       </c>
       <c r="K428" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>431.7</v>
@@ -22107,7 +22129,7 @@
         <v>531</v>
       </c>
       <c r="K429" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>431.7</v>
@@ -22158,7 +22180,7 @@
         <v>531</v>
       </c>
       <c r="K430" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L430" t="n">
         <v>431.7</v>
@@ -22209,7 +22231,7 @@
         <v>533</v>
       </c>
       <c r="K431" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>431.4</v>
@@ -22260,7 +22282,7 @@
         <v>533</v>
       </c>
       <c r="K432" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L432" t="n">
         <v>431.1</v>
@@ -22311,7 +22333,7 @@
         <v>534</v>
       </c>
       <c r="K433" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L433" t="n">
         <v>430.9</v>
@@ -22362,7 +22384,7 @@
         <v>535</v>
       </c>
       <c r="K434" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>430.6</v>
@@ -22413,7 +22435,7 @@
         <v>536</v>
       </c>
       <c r="K435" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L435" t="n">
         <v>430.5</v>
@@ -22464,7 +22486,7 @@
         <v>537</v>
       </c>
       <c r="K436" t="n">
-        <v>-12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L436" t="n">
         <v>430.5</v>
@@ -22515,7 +22537,7 @@
         <v>538</v>
       </c>
       <c r="K437" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L437" t="n">
         <v>430.5</v>
@@ -22566,7 +22588,7 @@
         <v>538</v>
       </c>
       <c r="K438" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L438" t="n">
         <v>430.2</v>
@@ -22617,7 +22639,7 @@
         <v>538</v>
       </c>
       <c r="K439" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L439" t="n">
         <v>429.9</v>
@@ -22668,7 +22690,7 @@
         <v>539</v>
       </c>
       <c r="K440" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>429.5</v>
@@ -22719,7 +22741,7 @@
         <v>540</v>
       </c>
       <c r="K441" t="n">
-        <v>-37.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L441" t="n">
         <v>429.2</v>
@@ -22770,7 +22792,7 @@
         <v>540</v>
       </c>
       <c r="K442" t="n">
-        <v>-37.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L442" t="n">
         <v>428.9</v>
@@ -22821,7 +22843,7 @@
         <v>543</v>
       </c>
       <c r="K443" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>428.8</v>
@@ -22872,7 +22894,7 @@
         <v>545</v>
       </c>
       <c r="K444" t="n">
-        <v>-23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L444" t="n">
         <v>428.6</v>
@@ -22923,7 +22945,7 @@
         <v>546</v>
       </c>
       <c r="K445" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L445" t="n">
         <v>428.4</v>
@@ -22974,7 +22996,7 @@
         <v>549</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L446" t="n">
         <v>428.4</v>
@@ -23025,7 +23047,7 @@
         <v>552</v>
       </c>
       <c r="K447" t="n">
-        <v>-8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L447" t="n">
         <v>428.2</v>
@@ -23076,7 +23098,7 @@
         <v>555</v>
       </c>
       <c r="K448" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L448" t="n">
         <v>427.7</v>
@@ -23127,7 +23149,7 @@
         <v>563</v>
       </c>
       <c r="K449" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L449" t="n">
         <v>428</v>
@@ -23178,7 +23200,7 @@
         <v>563</v>
       </c>
       <c r="K450" t="n">
-        <v>0</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L450" t="n">
         <v>428.4</v>
@@ -23229,7 +23251,7 @@
         <v>564</v>
       </c>
       <c r="K451" t="n">
-        <v>9.67741935483871</v>
+        <v>25</v>
       </c>
       <c r="L451" t="n">
         <v>429</v>
@@ -23280,7 +23302,7 @@
         <v>565</v>
       </c>
       <c r="K452" t="n">
-        <v>6.25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L452" t="n">
         <v>429.5</v>
@@ -23331,7 +23353,7 @@
         <v>566</v>
       </c>
       <c r="K453" t="n">
-        <v>6.25</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L453" t="n">
         <v>429.8</v>
@@ -23382,7 +23404,7 @@
         <v>567</v>
       </c>
       <c r="K454" t="n">
-        <v>6.25</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L454" t="n">
         <v>430.2</v>
@@ -23433,7 +23455,7 @@
         <v>567</v>
       </c>
       <c r="K455" t="n">
-        <v>9.67741935483871</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L455" t="n">
         <v>430.7</v>
@@ -23484,7 +23506,7 @@
         <v>568</v>
       </c>
       <c r="K456" t="n">
-        <v>3.225806451612903</v>
+        <v>25</v>
       </c>
       <c r="L456" t="n">
         <v>430.8</v>
@@ -23535,7 +23557,7 @@
         <v>568</v>
       </c>
       <c r="K457" t="n">
-        <v>6.666666666666667</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L457" t="n">
         <v>431.2</v>
@@ -23586,7 +23608,7 @@
         <v>569</v>
       </c>
       <c r="K458" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>432</v>
@@ -23637,7 +23659,7 @@
         <v>570</v>
       </c>
       <c r="K459" t="n">
-        <v>6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L459" t="n">
         <v>431.9</v>
@@ -23688,7 +23710,7 @@
         <v>570</v>
       </c>
       <c r="K460" t="n">
-        <v>9.67741935483871</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L460" t="n">
         <v>431.8</v>
@@ -23739,7 +23761,7 @@
         <v>571</v>
       </c>
       <c r="K461" t="n">
-        <v>9.67741935483871</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L461" t="n">
         <v>431.5</v>
@@ -23790,7 +23812,7 @@
         <v>571</v>
       </c>
       <c r="K462" t="n">
-        <v>9.67741935483871</v>
+        <v>-60</v>
       </c>
       <c r="L462" t="n">
         <v>431.3</v>
@@ -23841,7 +23863,7 @@
         <v>571</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L463" t="n">
         <v>431</v>
@@ -23892,7 +23914,7 @@
         <v>571</v>
       </c>
       <c r="K464" t="n">
-        <v>7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L464" t="n">
         <v>430.8</v>
@@ -23943,7 +23965,7 @@
         <v>573</v>
       </c>
       <c r="K465" t="n">
-        <v>18.51851851851852</v>
+        <v>20</v>
       </c>
       <c r="L465" t="n">
         <v>430.8</v>
@@ -23994,7 +24016,7 @@
         <v>575</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L466" t="n">
         <v>430.7</v>
@@ -24045,7 +24067,7 @@
         <v>576</v>
       </c>
       <c r="K467" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L467" t="n">
         <v>430.7</v>
@@ -24096,7 +24118,7 @@
         <v>578</v>
       </c>
       <c r="K468" t="n">
-        <v>39.1304347826087</v>
+        <v>25</v>
       </c>
       <c r="L468" t="n">
         <v>430.8</v>
@@ -24147,7 +24169,7 @@
         <v>578</v>
       </c>
       <c r="K469" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L469" t="n">
         <v>431</v>
@@ -24198,7 +24220,7 @@
         <v>579</v>
       </c>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L470" t="n">
         <v>431.1</v>
@@ -24249,7 +24271,7 @@
         <v>579</v>
       </c>
       <c r="K471" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L471" t="n">
         <v>431.3</v>
@@ -24300,7 +24322,7 @@
         <v>580</v>
       </c>
       <c r="K472" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L472" t="n">
         <v>431.6</v>
@@ -24351,7 +24373,7 @@
         <v>580</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L473" t="n">
         <v>431.9</v>
@@ -24453,7 +24475,7 @@
         <v>581</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L475" t="n">
         <v>432.1</v>
@@ -24504,7 +24526,7 @@
         <v>581</v>
       </c>
       <c r="K476" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L476" t="n">
         <v>432.3</v>
@@ -24555,7 +24577,7 @@
         <v>582</v>
       </c>
       <c r="K477" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>432.5</v>
@@ -24606,7 +24628,7 @@
         <v>582</v>
       </c>
       <c r="K478" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>432.5</v>
@@ -24657,7 +24679,7 @@
         <v>582</v>
       </c>
       <c r="K479" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>432.5</v>
@@ -24708,7 +24730,7 @@
         <v>582</v>
       </c>
       <c r="K480" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L480" t="n">
         <v>432.6</v>
@@ -24759,7 +24781,7 @@
         <v>582</v>
       </c>
       <c r="K481" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>432.7</v>
@@ -24810,7 +24832,7 @@
         <v>582</v>
       </c>
       <c r="K482" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>432.7</v>
@@ -24861,7 +24883,7 @@
         <v>582</v>
       </c>
       <c r="K483" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L483" t="n">
         <v>432.7</v>
@@ -24912,7 +24934,7 @@
         <v>582</v>
       </c>
       <c r="K484" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L484" t="n">
         <v>432.8</v>
@@ -24963,7 +24985,7 @@
         <v>582</v>
       </c>
       <c r="K485" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L485" t="n">
         <v>432.9</v>
@@ -25014,7 +25036,7 @@
         <v>583</v>
       </c>
       <c r="K486" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L486" t="n">
         <v>433.1</v>
@@ -25065,7 +25087,7 @@
         <v>583</v>
       </c>
       <c r="K487" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L487" t="n">
         <v>433.2</v>
@@ -25167,7 +25189,7 @@
         <v>585</v>
       </c>
       <c r="K489" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L489" t="n">
         <v>433.3</v>
@@ -25218,7 +25240,7 @@
         <v>587</v>
       </c>
       <c r="K490" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L490" t="n">
         <v>433.2</v>
@@ -25269,7 +25291,7 @@
         <v>588</v>
       </c>
       <c r="K491" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L491" t="n">
         <v>433</v>
@@ -25320,7 +25342,7 @@
         <v>589</v>
       </c>
       <c r="K492" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L492" t="n">
         <v>432.9</v>
@@ -25422,7 +25444,7 @@
         <v>592</v>
       </c>
       <c r="K494" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L494" t="n">
         <v>432.7</v>
@@ -25473,7 +25495,7 @@
         <v>593</v>
       </c>
       <c r="K495" t="n">
-        <v>-16.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L495" t="n">
         <v>432.4</v>
@@ -25524,7 +25546,7 @@
         <v>595</v>
       </c>
       <c r="K496" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L496" t="n">
         <v>431.8</v>
@@ -25575,7 +25597,7 @@
         <v>597</v>
       </c>
       <c r="K497" t="n">
-        <v>-46.66666666666666</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L497" t="n">
         <v>431</v>
@@ -25626,7 +25648,7 @@
         <v>599</v>
       </c>
       <c r="K498" t="n">
-        <v>-29.41176470588236</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L498" t="n">
         <v>430.5</v>
@@ -25677,7 +25699,7 @@
         <v>599</v>
       </c>
       <c r="K499" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L499" t="n">
         <v>429.9</v>
@@ -25728,7 +25750,7 @@
         <v>601</v>
       </c>
       <c r="K500" t="n">
-        <v>-15.78947368421053</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L500" t="n">
         <v>429.7</v>
@@ -25779,7 +25801,7 @@
         <v>604</v>
       </c>
       <c r="K501" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L501" t="n">
         <v>429.3</v>
@@ -25830,7 +25852,7 @@
         <v>605</v>
       </c>
       <c r="K502" t="n">
-        <v>-30.43478260869566</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L502" t="n">
         <v>428.7</v>
@@ -25881,7 +25903,7 @@
         <v>606</v>
       </c>
       <c r="K503" t="n">
-        <v>-25</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L503" t="n">
         <v>428.1</v>
@@ -25932,7 +25954,7 @@
         <v>609</v>
       </c>
       <c r="K504" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>428</v>
@@ -25983,7 +26005,7 @@
         <v>609</v>
       </c>
       <c r="K505" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L505" t="n">
         <v>428</v>
@@ -26034,7 +26056,7 @@
         <v>610</v>
       </c>
       <c r="K506" t="n">
-        <v>-11.11111111111111</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L506" t="n">
         <v>428.3</v>
@@ -26085,7 +26107,7 @@
         <v>611</v>
       </c>
       <c r="K507" t="n">
-        <v>-14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L507" t="n">
         <v>428.7</v>
@@ -26136,7 +26158,7 @@
         <v>611</v>
       </c>
       <c r="K508" t="n">
-        <v>-11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L508" t="n">
         <v>428.9</v>
@@ -26187,7 +26209,7 @@
         <v>613</v>
       </c>
       <c r="K509" t="n">
-        <v>-21.42857142857143</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L509" t="n">
         <v>428.9</v>
@@ -26238,7 +26260,7 @@
         <v>614</v>
       </c>
       <c r="K510" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L510" t="n">
         <v>428.8</v>
@@ -26289,7 +26311,7 @@
         <v>616</v>
       </c>
       <c r="K511" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L511" t="n">
         <v>428.8</v>
@@ -26340,7 +26362,7 @@
         <v>618</v>
       </c>
       <c r="K512" t="n">
-        <v>-10.3448275862069</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L512" t="n">
         <v>429.1</v>
@@ -26391,7 +26413,7 @@
         <v>619</v>
       </c>
       <c r="K513" t="n">
-        <v>-17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L513" t="n">
         <v>429.2</v>
@@ -26442,7 +26464,7 @@
         <v>620</v>
       </c>
       <c r="K514" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L514" t="n">
         <v>428.9</v>
@@ -26493,7 +26515,7 @@
         <v>621</v>
       </c>
       <c r="K515" t="n">
-        <v>-14.28571428571428</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L515" t="n">
         <v>428.5</v>
@@ -26544,7 +26566,7 @@
         <v>623</v>
       </c>
       <c r="K516" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L516" t="n">
         <v>428.2</v>
@@ -26595,7 +26617,7 @@
         <v>623</v>
       </c>
       <c r="K517" t="n">
-        <v>7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L517" t="n">
         <v>428</v>
@@ -26646,7 +26668,7 @@
         <v>625</v>
       </c>
       <c r="K518" t="n">
-        <v>-7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L518" t="n">
         <v>427.6</v>
@@ -26697,7 +26719,7 @@
         <v>627</v>
       </c>
       <c r="K519" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L519" t="n">
         <v>427.6</v>
@@ -26748,7 +26770,7 @@
         <v>628</v>
       </c>
       <c r="K520" t="n">
-        <v>-3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L520" t="n">
         <v>427.6</v>
@@ -26799,7 +26821,7 @@
         <v>628</v>
       </c>
       <c r="K521" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L521" t="n">
         <v>427.8</v>
@@ -26850,7 +26872,7 @@
         <v>628</v>
       </c>
       <c r="K522" t="n">
-        <v>13.04347826086956</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L522" t="n">
         <v>427.8</v>
@@ -26901,7 +26923,7 @@
         <v>628</v>
       </c>
       <c r="K523" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L523" t="n">
         <v>427.9</v>
@@ -26952,7 +26974,7 @@
         <v>629</v>
       </c>
       <c r="K524" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L524" t="n">
         <v>428</v>
@@ -27003,7 +27025,7 @@
         <v>632</v>
       </c>
       <c r="K525" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L525" t="n">
         <v>428.5</v>
@@ -27054,7 +27076,7 @@
         <v>634</v>
       </c>
       <c r="K526" t="n">
-        <v>-8.333333333333332</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L526" t="n">
         <v>428.6</v>
@@ -27105,7 +27127,7 @@
         <v>634</v>
       </c>
       <c r="K527" t="n">
-        <v>-4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L527" t="n">
         <v>428.7</v>
@@ -27156,7 +27178,7 @@
         <v>636</v>
       </c>
       <c r="K528" t="n">
-        <v>4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>429.2</v>
@@ -27207,7 +27229,7 @@
         <v>638</v>
       </c>
       <c r="K529" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L529" t="n">
         <v>429.3</v>
@@ -27258,7 +27280,7 @@
         <v>640</v>
       </c>
       <c r="K530" t="n">
-        <v>-7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L530" t="n">
         <v>429.1</v>
@@ -27309,7 +27331,7 @@
         <v>642</v>
       </c>
       <c r="K531" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>429.1</v>
@@ -27360,7 +27382,7 @@
         <v>643</v>
       </c>
       <c r="K532" t="n">
-        <v>4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L532" t="n">
         <v>429.2</v>
@@ -27411,7 +27433,7 @@
         <v>644</v>
       </c>
       <c r="K533" t="n">
-        <v>4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L533" t="n">
         <v>429.2</v>
@@ -27462,7 +27484,7 @@
         <v>647</v>
       </c>
       <c r="K534" t="n">
-        <v>-3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L534" t="n">
         <v>429</v>
@@ -27513,7 +27535,7 @@
         <v>650</v>
       </c>
       <c r="K535" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L535" t="n">
         <v>428.8</v>
@@ -27564,7 +27586,7 @@
         <v>653</v>
       </c>
       <c r="K536" t="n">
-        <v>-6.666666666666667</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L536" t="n">
         <v>428.5</v>
@@ -27615,7 +27637,7 @@
         <v>653</v>
       </c>
       <c r="K537" t="n">
-        <v>-6.666666666666667</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L537" t="n">
         <v>428.2</v>
@@ -27666,7 +27688,7 @@
         <v>656</v>
       </c>
       <c r="K538" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>428</v>
@@ -27717,7 +27739,7 @@
         <v>658</v>
       </c>
       <c r="K539" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L539" t="n">
         <v>427.8</v>
@@ -27768,7 +27790,7 @@
         <v>658</v>
       </c>
       <c r="K540" t="n">
-        <v>-6.666666666666667</v>
+        <v>-12.5</v>
       </c>
       <c r="L540" t="n">
         <v>427.8</v>
@@ -27819,7 +27841,7 @@
         <v>660</v>
       </c>
       <c r="K541" t="n">
-        <v>-12.5</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L541" t="n">
         <v>427.4</v>
@@ -27870,7 +27892,7 @@
         <v>660</v>
       </c>
       <c r="K542" t="n">
-        <v>-12.5</v>
+        <v>-25</v>
       </c>
       <c r="L542" t="n">
         <v>426.9</v>
@@ -27921,7 +27943,7 @@
         <v>661</v>
       </c>
       <c r="K543" t="n">
-        <v>-15.15151515151515</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L543" t="n">
         <v>426.4</v>
@@ -27972,7 +27994,7 @@
         <v>662</v>
       </c>
       <c r="K544" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L544" t="n">
         <v>426.3</v>
@@ -28023,7 +28045,7 @@
         <v>664</v>
       </c>
       <c r="K545" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L545" t="n">
         <v>425.7</v>
@@ -28074,7 +28096,7 @@
         <v>664</v>
       </c>
       <c r="K546" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L546" t="n">
         <v>425.4</v>
@@ -28125,7 +28147,7 @@
         <v>666</v>
       </c>
       <c r="K547" t="n">
-        <v>-12.5</v>
+        <v>-40</v>
       </c>
       <c r="L547" t="n">
         <v>425.3</v>
@@ -28176,7 +28198,7 @@
         <v>667</v>
       </c>
       <c r="K548" t="n">
-        <v>-22.58064516129032</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L548" t="n">
         <v>424.8</v>
@@ -28227,7 +28249,7 @@
         <v>671</v>
       </c>
       <c r="K549" t="n">
-        <v>-27.27272727272727</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L549" t="n">
         <v>424.1</v>
@@ -28278,7 +28300,7 @@
         <v>671</v>
       </c>
       <c r="K550" t="n">
-        <v>-22.58064516129032</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L550" t="n">
         <v>423.4</v>
@@ -28329,7 +28351,7 @@
         <v>676</v>
       </c>
       <c r="K551" t="n">
-        <v>-11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L551" t="n">
         <v>423.4</v>
@@ -28380,7 +28402,7 @@
         <v>682</v>
       </c>
       <c r="K552" t="n">
-        <v>-28.2051282051282</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L552" t="n">
         <v>422.8</v>
@@ -28431,7 +28453,7 @@
         <v>683</v>
       </c>
       <c r="K553" t="n">
-        <v>-23.07692307692308</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L553" t="n">
         <v>422.4</v>
@@ -28482,7 +28504,7 @@
         <v>686</v>
       </c>
       <c r="K554" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>422.2</v>
@@ -28533,7 +28555,7 @@
         <v>686</v>
       </c>
       <c r="K555" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L555" t="n">
         <v>422.2</v>
@@ -28584,7 +28606,7 @@
         <v>688</v>
       </c>
       <c r="K556" t="n">
-        <v>-14.28571428571428</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L556" t="n">
         <v>422</v>
@@ -28635,7 +28657,7 @@
         <v>689</v>
       </c>
       <c r="K557" t="n">
-        <v>-16.66666666666666</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L557" t="n">
         <v>421.5</v>
@@ -28686,7 +28708,7 @@
         <v>690</v>
       </c>
       <c r="K558" t="n">
-        <v>-23.52941176470588</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L558" t="n">
         <v>421.2</v>
@@ -28737,7 +28759,7 @@
         <v>691</v>
       </c>
       <c r="K559" t="n">
-        <v>-21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L559" t="n">
         <v>421.2</v>
@@ -28839,7 +28861,7 @@
         <v>697</v>
       </c>
       <c r="K561" t="n">
-        <v>-13.51351351351351</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L561" t="n">
         <v>421</v>
@@ -28890,7 +28912,7 @@
         <v>697</v>
       </c>
       <c r="K562" t="n">
-        <v>-13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L562" t="n">
         <v>421.1</v>
@@ -28941,7 +28963,7 @@
         <v>697</v>
       </c>
       <c r="K563" t="n">
-        <v>-11.11111111111111</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L563" t="n">
         <v>421.1</v>
@@ -28992,7 +29014,7 @@
         <v>697</v>
       </c>
       <c r="K564" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L564" t="n">
         <v>420.8</v>
@@ -29043,7 +29065,7 @@
         <v>699</v>
       </c>
       <c r="K565" t="n">
-        <v>-2.857142857142857</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L565" t="n">
         <v>420.7</v>
@@ -29094,7 +29116,7 @@
         <v>700</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L566" t="n">
         <v>420.9</v>
@@ -29145,7 +29167,7 @@
         <v>701</v>
       </c>
       <c r="K567" t="n">
-        <v>-8.571428571428571</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L567" t="n">
         <v>421.1</v>
@@ -29196,7 +29218,7 @@
         <v>704</v>
       </c>
       <c r="K568" t="n">
-        <v>2.702702702702703</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L568" t="n">
         <v>421.5</v>
@@ -29247,7 +29269,7 @@
         <v>710</v>
       </c>
       <c r="K569" t="n">
-        <v>-2.564102564102564</v>
+        <v>-25</v>
       </c>
       <c r="L569" t="n">
         <v>421.4</v>
@@ -29349,7 +29371,7 @@
         <v>712</v>
       </c>
       <c r="K571" t="n">
-        <v>-11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L571" t="n">
         <v>421.2</v>
@@ -29400,7 +29422,7 @@
         <v>717</v>
       </c>
       <c r="K572" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L572" t="n">
         <v>421.8</v>
@@ -29451,7 +29473,7 @@
         <v>718</v>
       </c>
       <c r="K573" t="n">
-        <v>14.28571428571428</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L573" t="n">
         <v>422.3</v>
@@ -29502,7 +29524,7 @@
         <v>718</v>
       </c>
       <c r="K574" t="n">
-        <v>6.25</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L574" t="n">
         <v>422.8</v>
@@ -29553,7 +29575,7 @@
         <v>719</v>
       </c>
       <c r="K575" t="n">
-        <v>9.090909090909092</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L575" t="n">
         <v>423.2</v>
@@ -29604,7 +29626,7 @@
         <v>720</v>
       </c>
       <c r="K576" t="n">
-        <v>12.5</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L576" t="n">
         <v>423.4</v>
@@ -29655,7 +29677,7 @@
         <v>720</v>
       </c>
       <c r="K577" t="n">
-        <v>16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L577" t="n">
         <v>423.7</v>
@@ -29706,7 +29728,7 @@
         <v>722</v>
       </c>
       <c r="K578" t="n">
-        <v>18.75</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L578" t="n">
         <v>423.9</v>
@@ -29757,7 +29779,7 @@
         <v>722</v>
       </c>
       <c r="K579" t="n">
-        <v>22.58064516129032</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L579" t="n">
         <v>424.7</v>
@@ -29808,7 +29830,7 @@
         <v>722</v>
       </c>
       <c r="K580" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L580" t="n">
         <v>425.4</v>
@@ -29859,7 +29881,7 @@
         <v>723</v>
       </c>
       <c r="K581" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L581" t="n">
         <v>425.9</v>
@@ -29910,7 +29932,7 @@
         <v>726</v>
       </c>
       <c r="K582" t="n">
-        <v>31.03448275862069</v>
+        <v>50</v>
       </c>
       <c r="L582" t="n">
         <v>426.2</v>
@@ -29961,7 +29983,7 @@
         <v>727</v>
       </c>
       <c r="K583" t="n">
-        <v>26.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L583" t="n">
         <v>426.5</v>
@@ -30012,7 +30034,7 @@
         <v>729</v>
       </c>
       <c r="K584" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>426.6</v>
@@ -30063,7 +30085,7 @@
         <v>730</v>
       </c>
       <c r="K585" t="n">
-        <v>16.12903225806452</v>
+        <v>20</v>
       </c>
       <c r="L585" t="n">
         <v>426.7</v>
@@ -30114,7 +30136,7 @@
         <v>731</v>
       </c>
       <c r="K586" t="n">
-        <v>16.12903225806452</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L586" t="n">
         <v>427</v>
@@ -30165,7 +30187,7 @@
         <v>731</v>
       </c>
       <c r="K587" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L587" t="n">
         <v>427.3</v>
@@ -30267,7 +30289,7 @@
         <v>732</v>
       </c>
       <c r="K589" t="n">
-        <v>36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>427.4</v>
@@ -30318,7 +30340,7 @@
         <v>734</v>
       </c>
       <c r="K590" t="n">
-        <v>39.1304347826087</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L590" t="n">
         <v>427.6</v>
@@ -30369,7 +30391,7 @@
         <v>734</v>
       </c>
       <c r="K591" t="n">
-        <v>36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L591" t="n">
         <v>427.9</v>
@@ -30420,7 +30442,7 @@
         <v>734</v>
       </c>
       <c r="K592" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L592" t="n">
         <v>427.9</v>
@@ -30471,7 +30493,7 @@
         <v>734</v>
       </c>
       <c r="K593" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L593" t="n">
         <v>428</v>
@@ -30522,7 +30544,7 @@
         <v>734</v>
       </c>
       <c r="K594" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L594" t="n">
         <v>428.3</v>
@@ -30573,7 +30595,7 @@
         <v>734</v>
       </c>
       <c r="K595" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L595" t="n">
         <v>428.5</v>
@@ -30624,7 +30646,7 @@
         <v>734</v>
       </c>
       <c r="K596" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L596" t="n">
         <v>428.6</v>
@@ -30675,7 +30697,7 @@
         <v>734</v>
       </c>
       <c r="K597" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L597" t="n">
         <v>428.7</v>
@@ -30726,7 +30748,7 @@
         <v>734</v>
       </c>
       <c r="K598" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L598" t="n">
         <v>428.8</v>
@@ -30777,7 +30799,7 @@
         <v>735</v>
       </c>
       <c r="K599" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L599" t="n">
         <v>429.1</v>
@@ -30828,7 +30850,7 @@
         <v>735</v>
       </c>
       <c r="K600" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L600" t="n">
         <v>429.2</v>
@@ -30879,7 +30901,7 @@
         <v>735</v>
       </c>
       <c r="K601" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L601" t="n">
         <v>429.3</v>
@@ -30930,7 +30952,7 @@
         <v>735</v>
       </c>
       <c r="K602" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L602" t="n">
         <v>429.4</v>
@@ -30981,7 +31003,7 @@
         <v>736</v>
       </c>
       <c r="K603" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L603" t="n">
         <v>429.4</v>
@@ -31032,7 +31054,7 @@
         <v>736</v>
       </c>
       <c r="K604" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L604" t="n">
         <v>429.4</v>
@@ -31083,7 +31105,7 @@
         <v>736</v>
       </c>
       <c r="K605" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L605" t="n">
         <v>429.4</v>
@@ -31134,7 +31156,7 @@
         <v>736</v>
       </c>
       <c r="K606" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L606" t="n">
         <v>429.4</v>
@@ -31236,7 +31258,7 @@
         <v>738</v>
       </c>
       <c r="K608" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L608" t="n">
         <v>429.5</v>
@@ -31287,7 +31309,7 @@
         <v>738</v>
       </c>
       <c r="K609" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L609" t="n">
         <v>429.4</v>
@@ -31338,7 +31360,7 @@
         <v>738</v>
       </c>
       <c r="K610" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L610" t="n">
         <v>429.3</v>
@@ -31389,7 +31411,7 @@
         <v>738</v>
       </c>
       <c r="K611" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L611" t="n">
         <v>429.2</v>
@@ -31542,7 +31564,7 @@
         <v>739</v>
       </c>
       <c r="K614" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L614" t="n">
         <v>429.2</v>
@@ -31593,7 +31615,7 @@
         <v>740</v>
       </c>
       <c r="K615" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L615" t="n">
         <v>429.4</v>
@@ -31644,7 +31666,7 @@
         <v>742</v>
       </c>
       <c r="K616" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L616" t="n">
         <v>429.4</v>
@@ -31695,7 +31717,7 @@
         <v>743</v>
       </c>
       <c r="K617" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L617" t="n">
         <v>429.4</v>
@@ -31746,7 +31768,7 @@
         <v>743</v>
       </c>
       <c r="K618" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L618" t="n">
         <v>429.5</v>
@@ -31797,7 +31819,7 @@
         <v>745</v>
       </c>
       <c r="K619" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L619" t="n">
         <v>429.4</v>
@@ -31848,7 +31870,7 @@
         <v>746</v>
       </c>
       <c r="K620" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L620" t="n">
         <v>429.4</v>
@@ -31899,7 +31921,7 @@
         <v>747</v>
       </c>
       <c r="K621" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L621" t="n">
         <v>429.5</v>
@@ -31950,7 +31972,7 @@
         <v>747</v>
       </c>
       <c r="K622" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L622" t="n">
         <v>429.6</v>
@@ -32001,7 +32023,7 @@
         <v>749</v>
       </c>
       <c r="K623" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L623" t="n">
         <v>429.5</v>
@@ -32052,7 +32074,7 @@
         <v>750</v>
       </c>
       <c r="K624" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L624" t="n">
         <v>429.4</v>
@@ -32154,7 +32176,7 @@
         <v>751</v>
       </c>
       <c r="K626" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L626" t="n">
         <v>429.3</v>
@@ -32205,7 +32227,7 @@
         <v>752</v>
       </c>
       <c r="K627" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L627" t="n">
         <v>429.4</v>
@@ -32256,7 +32278,7 @@
         <v>753</v>
       </c>
       <c r="K628" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L628" t="n">
         <v>429.4</v>
@@ -32358,7 +32380,7 @@
         <v>757</v>
       </c>
       <c r="K630" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L630" t="n">
         <v>429.8</v>
@@ -32409,7 +32431,7 @@
         <v>758</v>
       </c>
       <c r="K631" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L631" t="n">
         <v>429.9</v>
@@ -32460,7 +32482,7 @@
         <v>759</v>
       </c>
       <c r="K632" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L632" t="n">
         <v>430.1</v>
@@ -32562,7 +32584,7 @@
         <v>763</v>
       </c>
       <c r="K634" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L634" t="n">
         <v>430.3</v>
@@ -32613,7 +32635,7 @@
         <v>764</v>
       </c>
       <c r="K635" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L635" t="n">
         <v>430.5</v>
@@ -32664,7 +32686,7 @@
         <v>765</v>
       </c>
       <c r="K636" t="n">
-        <v>4.347826086956522</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L636" t="n">
         <v>430.5</v>
@@ -32715,7 +32737,7 @@
         <v>766</v>
       </c>
       <c r="K637" t="n">
-        <v>4.347826086956522</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L637" t="n">
         <v>430.5</v>
@@ -32766,7 +32788,7 @@
         <v>766</v>
       </c>
       <c r="K638" t="n">
-        <v>4.347826086956522</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L638" t="n">
         <v>430.6</v>
@@ -32817,7 +32839,7 @@
         <v>767</v>
       </c>
       <c r="K639" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>430.9</v>
@@ -32868,7 +32890,7 @@
         <v>769</v>
       </c>
       <c r="K640" t="n">
-        <v>21.73913043478261</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L640" t="n">
         <v>431.1</v>
@@ -32919,7 +32941,7 @@
         <v>772</v>
       </c>
       <c r="K641" t="n">
-        <v>4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L641" t="n">
         <v>431.1</v>
@@ -32970,7 +32992,7 @@
         <v>773</v>
       </c>
       <c r="K642" t="n">
-        <v>7.692307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L642" t="n">
         <v>431.1</v>
@@ -33021,7 +33043,7 @@
         <v>775</v>
       </c>
       <c r="K643" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>431.2</v>
@@ -33072,7 +33094,7 @@
         <v>776</v>
       </c>
       <c r="K644" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>431.3</v>
@@ -33123,7 +33145,7 @@
         <v>778</v>
       </c>
       <c r="K645" t="n">
-        <v>14.28571428571428</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L645" t="n">
         <v>431.5</v>
@@ -33174,7 +33196,7 @@
         <v>778</v>
       </c>
       <c r="K646" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L646" t="n">
         <v>431.8</v>
@@ -33225,7 +33247,7 @@
         <v>779</v>
       </c>
       <c r="K647" t="n">
-        <v>3.703703703703703</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L647" t="n">
         <v>431.9</v>
@@ -33276,7 +33298,7 @@
         <v>779</v>
       </c>
       <c r="K648" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
         <v>432</v>
@@ -33327,7 +33349,7 @@
         <v>782</v>
       </c>
       <c r="K649" t="n">
-        <v>0</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L649" t="n">
         <v>431.7</v>
@@ -33378,7 +33400,7 @@
         <v>782</v>
       </c>
       <c r="K650" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="L650" t="n">
         <v>431.2</v>
@@ -33429,7 +33451,7 @@
         <v>784</v>
       </c>
       <c r="K651" t="n">
-        <v>-15.38461538461539</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L651" t="n">
         <v>430.8</v>
@@ -33480,7 +33502,7 @@
         <v>784</v>
       </c>
       <c r="K652" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L652" t="n">
         <v>430.3</v>
@@ -33531,7 +33553,7 @@
         <v>786</v>
       </c>
       <c r="K653" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L653" t="n">
         <v>429.8</v>
@@ -33582,7 +33604,7 @@
         <v>787</v>
       </c>
       <c r="K654" t="n">
-        <v>-16.66666666666666</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L654" t="n">
         <v>429.3</v>
@@ -33633,7 +33655,7 @@
         <v>789</v>
       </c>
       <c r="K655" t="n">
-        <v>-12</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L655" t="n">
         <v>428.8</v>
@@ -33684,7 +33706,7 @@
         <v>790</v>
       </c>
       <c r="K656" t="n">
-        <v>-12</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L656" t="n">
         <v>428.2</v>
@@ -33735,7 +33757,7 @@
         <v>791</v>
       </c>
       <c r="K657" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L657" t="n">
         <v>427.8</v>
@@ -33786,7 +33808,7 @@
         <v>792</v>
       </c>
       <c r="K658" t="n">
-        <v>-15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L658" t="n">
         <v>427.3</v>
@@ -33837,7 +33859,7 @@
         <v>793</v>
       </c>
       <c r="K659" t="n">
-        <v>-15.38461538461539</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L659" t="n">
         <v>427.2</v>
@@ -33888,7 +33910,7 @@
         <v>795</v>
       </c>
       <c r="K660" t="n">
-        <v>-15.38461538461539</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L660" t="n">
         <v>427.3</v>
@@ -33939,7 +33961,7 @@
         <v>800</v>
       </c>
       <c r="K661" t="n">
-        <v>-21.42857142857143</v>
+        <v>-12.5</v>
       </c>
       <c r="L661" t="n">
         <v>427.1</v>
@@ -33990,7 +34012,7 @@
         <v>803</v>
       </c>
       <c r="K662" t="n">
-        <v>-13.33333333333333</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L662" t="n">
         <v>427.2</v>
@@ -34041,7 +34063,7 @@
         <v>804</v>
       </c>
       <c r="K663" t="n">
-        <v>-3.448275862068965</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L663" t="n">
         <v>427.6</v>
@@ -34092,7 +34114,7 @@
         <v>805</v>
       </c>
       <c r="K664" t="n">
-        <v>-3.448275862068965</v>
+        <v>12.5</v>
       </c>
       <c r="L664" t="n">
         <v>428</v>
@@ -34143,7 +34165,7 @@
         <v>805</v>
       </c>
       <c r="K665" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L665" t="n">
         <v>428.2</v>
@@ -34194,7 +34216,7 @@
         <v>809</v>
       </c>
       <c r="K666" t="n">
-        <v>-22.58064516129032</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L666" t="n">
         <v>428.1</v>
@@ -34245,7 +34267,7 @@
         <v>810</v>
       </c>
       <c r="K667" t="n">
-        <v>-22.58064516129032</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L667" t="n">
         <v>427.8</v>
@@ -34296,7 +34318,7 @@
         <v>814</v>
       </c>
       <c r="K668" t="n">
-        <v>-8.571428571428571</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L668" t="n">
         <v>428</v>
@@ -34347,7 +34369,7 @@
         <v>815</v>
       </c>
       <c r="K669" t="n">
-        <v>-3.03030303030303</v>
+        <v>-10</v>
       </c>
       <c r="L669" t="n">
         <v>428</v>
@@ -34398,7 +34420,7 @@
         <v>817</v>
       </c>
       <c r="K670" t="n">
-        <v>2.857142857142857</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L670" t="n">
         <v>428</v>
@@ -34449,7 +34471,7 @@
         <v>819</v>
       </c>
       <c r="K671" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L671" t="n">
         <v>428.3</v>
@@ -34500,7 +34522,7 @@
         <v>819</v>
       </c>
       <c r="K672" t="n">
-        <v>2.857142857142857</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L672" t="n">
         <v>428.3</v>
@@ -34551,7 +34573,7 @@
         <v>819</v>
       </c>
       <c r="K673" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L673" t="n">
         <v>428.2</v>
@@ -34602,7 +34624,7 @@
         <v>819</v>
       </c>
       <c r="K674" t="n">
-        <v>6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L674" t="n">
         <v>428</v>
@@ -34653,7 +34675,7 @@
         <v>819</v>
       </c>
       <c r="K675" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L675" t="n">
         <v>427.8</v>
@@ -34704,7 +34726,7 @@
         <v>820</v>
       </c>
       <c r="K676" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L676" t="n">
         <v>427.9</v>
@@ -34755,7 +34777,7 @@
         <v>821</v>
       </c>
       <c r="K677" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L677" t="n">
         <v>428.2</v>
@@ -34806,7 +34828,7 @@
         <v>823</v>
       </c>
       <c r="K678" t="n">
-        <v>-3.225806451612903</v>
+        <v>-25</v>
       </c>
       <c r="L678" t="n">
         <v>427.9</v>
@@ -34857,7 +34879,7 @@
         <v>823</v>
       </c>
       <c r="K679" t="n">
-        <v>-6.666666666666667</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L679" t="n">
         <v>427.7</v>
@@ -34908,7 +34930,7 @@
         <v>823</v>
       </c>
       <c r="K680" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L680" t="n">
         <v>427.3</v>
@@ -34959,7 +34981,7 @@
         <v>824</v>
       </c>
       <c r="K681" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L681" t="n">
         <v>427.2</v>
@@ -35010,7 +35032,7 @@
         <v>825</v>
       </c>
       <c r="K682" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L682" t="n">
         <v>427</v>
@@ -35061,7 +35083,7 @@
         <v>825</v>
       </c>
       <c r="K683" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L683" t="n">
         <v>426.8</v>
@@ -35112,7 +35134,7 @@
         <v>825</v>
       </c>
       <c r="K684" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L684" t="n">
         <v>426.6</v>

--- a/BackTest/2019-10-31 BackTest MTL.xlsx
+++ b/BackTest/2019-10-31 BackTest MTL.xlsx
@@ -4791,20 +4791,14 @@
         <v>413.7333333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>413</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,20 +4826,14 @@
         <v>413.6333333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>407</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4873,20 +4861,14 @@
         <v>413.5333333333334</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>406</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4914,20 +4896,14 @@
         <v>413.4</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>406</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4955,20 +4931,14 @@
         <v>413.2833333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>406</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4996,20 +4966,14 @@
         <v>413.1666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>408</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5043,14 +5007,12 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>408</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K132" t="n">
+        <v>406</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5084,12 +5046,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>407</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+        <v>408</v>
+      </c>
+      <c r="K133" t="n">
+        <v>406</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -5127,10 +5091,12 @@
       <c r="J134" t="n">
         <v>407</v>
       </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>406</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -5166,14 +5132,12 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>409</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="K135" t="n">
+        <v>407</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5209,10 +5173,12 @@
       <c r="J136" t="n">
         <v>412</v>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>407</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -5248,12 +5214,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>412</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>410</v>
+      </c>
+      <c r="K137" t="n">
+        <v>407</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -5283,20 +5251,14 @@
         <v>412.6666666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>411</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5324,20 +5286,14 @@
         <v>412.6166666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>413</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5365,20 +5321,14 @@
         <v>412.6</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>414</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5406,20 +5356,14 @@
         <v>412.55</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>415</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5447,20 +5391,14 @@
         <v>412.6</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>415</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5488,20 +5426,14 @@
         <v>412.7166666666666</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>419</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +5468,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5575,11 +5503,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5610,15 +5534,11 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +5573,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5608,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5643,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5770,11 +5678,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5809,11 +5713,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5848,11 +5748,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +5783,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5926,11 +5818,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +5853,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6004,11 +5888,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6043,11 +5923,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +5958,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6121,11 +5993,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6028,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6199,11 +6063,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6238,11 +6098,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6277,11 +6133,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6316,11 +6168,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +6203,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +6238,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6433,11 +6273,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6472,11 +6308,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6511,11 +6343,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +6378,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6413,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6628,11 +6448,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6667,11 +6483,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +6518,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6745,11 +6553,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6588,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6823,11 +6623,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6862,11 +6658,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6901,11 +6693,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6940,11 +6728,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6979,11 +6763,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7014,16 +6794,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7051,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -7156,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -7191,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -7296,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -7401,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -7436,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -7471,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7506,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest MTL.xlsx
+++ b/BackTest/2019-10-31 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,10 +550,14 @@
         <v>-33108.48669202</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>408</v>
+      </c>
+      <c r="J5" t="n">
+        <v>408</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>-33108.48669202</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>408</v>
+      </c>
+      <c r="J6" t="n">
+        <v>408</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,19 @@
         <v>-33108.48669202</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>408</v>
+      </c>
+      <c r="J7" t="n">
+        <v>408</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +669,19 @@
         <v>-28004.86165398</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>408</v>
+      </c>
+      <c r="J8" t="n">
+        <v>408</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +713,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>408</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +752,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>408</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +791,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>408</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +830,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>408</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +869,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>408</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +908,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>408</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +947,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>408</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +986,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>408</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,15 +1022,17 @@
         <v>-29782.78585398</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>408</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,17 +1061,15 @@
         <v>-29001.37265398</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>408</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1024,17 +1100,15 @@
         <v>-29470.87775398</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>408</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1065,15 +1139,19 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>407</v>
       </c>
       <c r="J20" t="n">
-        <v>407</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>408</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1102,17 +1180,17 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>408</v>
       </c>
       <c r="J21" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1143,17 +1221,17 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>408</v>
       </c>
       <c r="J22" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1184,7 +1262,7 @@
         <v>-29268.91905397999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>408</v>
@@ -1192,7 +1270,11 @@
       <c r="J23" t="n">
         <v>408</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1221,7 +1303,7 @@
         <v>-35268.91905397999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>407</v>
@@ -1231,7 +1313,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1262,7 +1344,7 @@
         <v>-35267.80905397999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>406</v>
@@ -1272,7 +1354,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1303,7 +1385,7 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>409</v>
@@ -1313,7 +1395,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1344,7 +1426,7 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>406</v>
@@ -1385,7 +1467,7 @@
         <v>-37541.80905397999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>406</v>
@@ -1426,7 +1508,7 @@
         <v>-37575.55635397999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>409</v>
@@ -1467,7 +1549,7 @@
         <v>-37477.49625397999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>406</v>
@@ -1508,7 +1590,7 @@
         <v>-37474.58655397999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>407</v>
@@ -1549,7 +1631,7 @@
         <v>-38445.29175397999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>410</v>
@@ -1590,7 +1672,7 @@
         <v>-52727.29395397999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>405</v>
@@ -1631,7 +1713,7 @@
         <v>-51691.38525397999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>403</v>
@@ -1672,7 +1754,7 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>412</v>
@@ -1713,7 +1795,7 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>413</v>
@@ -1754,7 +1836,7 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>413</v>
@@ -1795,9 +1877,11 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>410</v>
+      </c>
       <c r="J38" t="n">
         <v>408</v>
       </c>
@@ -1834,9 +1918,11 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>410</v>
+      </c>
       <c r="J39" t="n">
         <v>408</v>
       </c>
@@ -1873,9 +1959,11 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>410</v>
+      </c>
       <c r="J40" t="n">
         <v>408</v>
       </c>
@@ -1912,9 +2000,11 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>410</v>
+      </c>
       <c r="J41" t="n">
         <v>408</v>
       </c>
@@ -1951,9 +2041,11 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>408</v>
+      </c>
       <c r="J42" t="n">
         <v>408</v>
       </c>
@@ -1990,9 +2082,11 @@
         <v>-35081.11605397999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>408</v>
+      </c>
       <c r="J43" t="n">
         <v>408</v>
       </c>
@@ -2029,9 +2123,11 @@
         <v>-35079.01605397999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>410</v>
+      </c>
       <c r="J44" t="n">
         <v>408</v>
       </c>
@@ -7411,11 +7507,9 @@
         <v>-41221.34670237999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>408</v>
       </c>
@@ -7452,11 +7546,9 @@
         <v>-41380.84370237999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>408</v>
       </c>
@@ -7610,9 +7702,11 @@
         <v>-45660.92610237999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>406</v>
+      </c>
       <c r="J187" t="n">
         <v>408</v>
       </c>
@@ -7649,7 +7743,7 @@
         <v>-43590.49790237999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>405</v>
@@ -7690,9 +7784,11 @@
         <v>-45015.58890237999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>406</v>
+      </c>
       <c r="J189" t="n">
         <v>408</v>
       </c>
@@ -7729,7 +7825,7 @@
         <v>-44450.08990237999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>405</v>
@@ -7770,7 +7866,7 @@
         <v>-44121.11320237999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>406</v>
@@ -7811,7 +7907,7 @@
         <v>-44212.88820237999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>408</v>
@@ -7852,7 +7948,7 @@
         <v>-44212.88820237999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>407</v>
@@ -7893,7 +7989,7 @@
         <v>-38144.08029218999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>407</v>
@@ -7934,7 +8030,7 @@
         <v>-45093.10629218999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>412</v>
@@ -7975,7 +8071,7 @@
         <v>-44476.25169218999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>410</v>
@@ -8016,7 +8112,7 @@
         <v>-45802.92919218999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>414</v>
@@ -8057,7 +8153,7 @@
         <v>-43741.07989218998</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>410</v>
@@ -8410,7 +8506,7 @@
         <v>95960.88199675002</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
@@ -8449,7 +8545,7 @@
         <v>94821.35209675002</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
@@ -8566,7 +8662,7 @@
         <v>102984.87419675</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
@@ -8878,7 +8974,7 @@
         <v>101168.22445462</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
@@ -9034,7 +9130,7 @@
         <v>95820.76115462001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
@@ -9073,7 +9169,7 @@
         <v>97682.76265462</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
@@ -9112,7 +9208,7 @@
         <v>105473.21307642</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
@@ -9151,7 +9247,7 @@
         <v>100945.77687642</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
@@ -9190,7 +9286,7 @@
         <v>100945.77687642</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
@@ -9346,7 +9442,7 @@
         <v>121535.39093282</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
@@ -9385,7 +9481,7 @@
         <v>125525.06605315</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
@@ -9424,7 +9520,7 @@
         <v>126756.55435315</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
@@ -9814,7 +9910,7 @@
         <v>111843.82825927</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
@@ -9853,7 +9949,7 @@
         <v>111843.82825927</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
@@ -9931,7 +10027,7 @@
         <v>147780.92858075</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
@@ -9939,13 +10035,15 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>1.068529411764706</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1.002450980392157</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9970,17 +10068,11 @@
         <v>143415.68248075</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>408</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10009,17 +10101,11 @@
         <v>155884.05458075</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>408</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10048,17 +10134,11 @@
         <v>155884.05458075</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>408</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10087,17 +10167,11 @@
         <v>194719.07098075</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>408</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10126,23 +10200,15 @@
         <v>201611.36260699</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>408</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
-        <v>1.078333333333333</v>
-      </c>
-      <c r="M251" t="n">
-        <v>1.009852216748768</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10167,7 +10233,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10200,7 +10266,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10233,7 +10299,7 @@
         <v>207217.77410699</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10266,7 +10332,7 @@
         <v>169674.23360699</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10299,7 +10365,7 @@
         <v>163380.23460699</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10332,7 +10398,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10365,7 +10431,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10398,7 +10464,7 @@
         <v>144654.01290699</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10431,7 +10497,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10464,7 +10530,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10497,7 +10563,7 @@
         <v>148833.25870699</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10530,7 +10596,7 @@
         <v>148536.31870699</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10563,7 +10629,7 @@
         <v>145349.50580699</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10596,7 +10662,7 @@
         <v>136081.88680699</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10629,7 +10695,7 @@
         <v>153057.84560699</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10662,7 +10728,7 @@
         <v>144621.59480699</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10695,7 +10761,7 @@
         <v>147297.88310699</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10728,7 +10794,7 @@
         <v>144461.95180699</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10761,7 +10827,7 @@
         <v>144523.72120699</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10794,7 +10860,7 @@
         <v>142405.57050699</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10827,7 +10893,7 @@
         <v>129574.64370699</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10860,7 +10926,7 @@
         <v>129574.64370699</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10893,7 +10959,7 @@
         <v>99522.99740699001</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10926,7 +10992,7 @@
         <v>67965.57270699</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10959,7 +11025,7 @@
         <v>74215.06000699</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10992,7 +11058,7 @@
         <v>71152.80350698999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11025,7 +11091,7 @@
         <v>71152.80350698999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11058,7 +11124,7 @@
         <v>71152.80350698999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11091,7 +11157,7 @@
         <v>58718.99410698999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11124,7 +11190,7 @@
         <v>81953.80810698999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11157,7 +11223,7 @@
         <v>86639.0248895</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11190,7 +11256,7 @@
         <v>83623.1098895</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11223,7 +11289,7 @@
         <v>85647.6178895</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11256,7 +11322,7 @@
         <v>80694.9918895</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11586,7 +11652,7 @@
         <v>35363.9393895</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11619,7 +11685,7 @@
         <v>35363.9393895</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -17526,7 +17592,7 @@
         <v>-17743.52032427008</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17559,7 +17625,7 @@
         <v>-20262.99702427008</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17592,7 +17658,7 @@
         <v>-18179.66372427008</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -24093,11 +24159,17 @@
         <v>-120522.1524636301</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>430</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24126,11 +24198,17 @@
         <v>-121221.6927636301</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>431</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24159,11 +24237,17 @@
         <v>-121195.8114636301</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>429</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24192,11 +24276,17 @@
         <v>-121195.8114636301</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>430</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24225,11 +24315,17 @@
         <v>-127279.7391636301</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>430</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24258,11 +24354,17 @@
         <v>-120036.8517636301</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>428</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24295,7 +24397,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24324,11 +24430,17 @@
         <v>-118460.9197460001</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>430</v>
+      </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24357,11 +24469,17 @@
         <v>-126997.1447283701</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>430</v>
+      </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24390,11 +24508,17 @@
         <v>-125638.5899283701</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>428</v>
+      </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24423,11 +24547,17 @@
         <v>-125638.5899283701</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>429</v>
+      </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24456,11 +24586,17 @@
         <v>-123795.0992772101</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>429</v>
+      </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24489,11 +24625,17 @@
         <v>-120239.0531409001</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>430</v>
+      </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24522,11 +24664,17 @@
         <v>-120698.5983409</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>431</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24555,11 +24703,17 @@
         <v>-122267.3775409001</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>430</v>
+      </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24588,11 +24742,17 @@
         <v>-118392.05602837</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>429</v>
+      </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24621,11 +24781,17 @@
         <v>-119707.54502837</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>432</v>
+      </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24658,7 +24824,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24691,7 +24861,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24724,7 +24898,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24757,7 +24935,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24790,7 +24972,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24819,11 +25005,17 @@
         <v>-118378.5626283701</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>430</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24856,7 +25048,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24889,7 +25085,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24922,7 +25122,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24955,7 +25159,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24988,7 +25196,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25021,7 +25233,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25054,7 +25270,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25087,7 +25307,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25120,7 +25344,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25153,7 +25381,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25186,7 +25418,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25219,7 +25455,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25252,7 +25492,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25285,7 +25529,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25318,7 +25566,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25351,7 +25603,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25384,7 +25640,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25413,11 +25673,17 @@
         <v>-118223.2393283701</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>426</v>
+      </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25450,7 +25716,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25483,7 +25753,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25516,7 +25790,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25545,11 +25823,17 @@
         <v>-107302.83932837</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>427</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25578,11 +25862,17 @@
         <v>-106219.36982837</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>428</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25615,7 +25905,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25648,7 +25942,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25681,7 +25979,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25714,7 +26016,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25747,7 +26053,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25780,7 +26090,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25813,7 +26127,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25846,7 +26164,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25879,7 +26201,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25912,7 +26238,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25945,7 +26275,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25978,7 +26312,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26011,7 +26349,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26044,13 +26386,17 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
       <c r="M733" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest MTL.xlsx
+++ b/BackTest/2019-10-31 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-33108.48669202</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>408</v>
-      </c>
-      <c r="J5" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>-33108.48669202</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>408</v>
-      </c>
-      <c r="J6" t="n">
-        <v>408</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +616,11 @@
         <v>-33108.48669202</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>408</v>
-      </c>
-      <c r="J7" t="n">
-        <v>408</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,19 +649,11 @@
         <v>-28004.86165398</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>408</v>
-      </c>
-      <c r="J8" t="n">
-        <v>408</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -713,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>408</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -752,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>408</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -791,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>408</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -830,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>408</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -869,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>408</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -908,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>408</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -947,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>408</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -986,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>408</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1025,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>408</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1064,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>408</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1103,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>408</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1139,19 +1045,11 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>407</v>
-      </c>
-      <c r="J20" t="n">
-        <v>408</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1180,19 +1078,11 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>408</v>
-      </c>
-      <c r="J21" t="n">
-        <v>408</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1221,19 +1111,11 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>408</v>
-      </c>
-      <c r="J22" t="n">
-        <v>408</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1262,19 +1144,11 @@
         <v>-29268.91905397999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>408</v>
-      </c>
-      <c r="J23" t="n">
-        <v>408</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,19 +1177,11 @@
         <v>-35268.91905397999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>407</v>
-      </c>
-      <c r="J24" t="n">
-        <v>408</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1344,19 +1210,11 @@
         <v>-35267.80905397999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>406</v>
-      </c>
-      <c r="J25" t="n">
-        <v>408</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1385,19 +1243,11 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>409</v>
-      </c>
-      <c r="J26" t="n">
-        <v>408</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1426,19 +1276,11 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>406</v>
-      </c>
-      <c r="J27" t="n">
-        <v>408</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1467,19 +1309,11 @@
         <v>-37541.80905397999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>406</v>
-      </c>
-      <c r="J28" t="n">
-        <v>408</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1508,19 +1342,11 @@
         <v>-37575.55635397999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>409</v>
-      </c>
-      <c r="J29" t="n">
-        <v>408</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1549,19 +1375,11 @@
         <v>-37477.49625397999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>406</v>
-      </c>
-      <c r="J30" t="n">
-        <v>408</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1590,19 +1408,11 @@
         <v>-37474.58655397999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>407</v>
-      </c>
-      <c r="J31" t="n">
-        <v>408</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1631,19 +1441,11 @@
         <v>-38445.29175397999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>410</v>
-      </c>
-      <c r="J32" t="n">
-        <v>408</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1672,19 +1474,11 @@
         <v>-52727.29395397999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>405</v>
-      </c>
-      <c r="J33" t="n">
-        <v>408</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1713,19 +1507,11 @@
         <v>-51691.38525397999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>403</v>
-      </c>
-      <c r="J34" t="n">
-        <v>408</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1754,19 +1540,11 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>412</v>
-      </c>
-      <c r="J35" t="n">
-        <v>408</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1795,19 +1573,11 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>413</v>
-      </c>
-      <c r="J36" t="n">
-        <v>408</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1836,19 +1606,11 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>413</v>
-      </c>
-      <c r="J37" t="n">
-        <v>408</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1877,19 +1639,11 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>410</v>
-      </c>
-      <c r="J38" t="n">
-        <v>408</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1918,19 +1672,11 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>410</v>
-      </c>
-      <c r="J39" t="n">
-        <v>408</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1959,19 +1705,11 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>410</v>
-      </c>
-      <c r="J40" t="n">
-        <v>408</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2000,19 +1738,11 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>410</v>
-      </c>
-      <c r="J41" t="n">
-        <v>408</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2041,19 +1771,11 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>408</v>
-      </c>
-      <c r="J42" t="n">
-        <v>408</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2082,19 +1804,11 @@
         <v>-35081.11605397999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>408</v>
-      </c>
-      <c r="J43" t="n">
-        <v>408</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2123,19 +1837,11 @@
         <v>-35079.01605397999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>410</v>
-      </c>
-      <c r="J44" t="n">
-        <v>408</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2167,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>408</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2206,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>408</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2245,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>408</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2284,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>408</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2323,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>408</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>408</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2401,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>408</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2440,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>408</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2479,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>408</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2518,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>408</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2557,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>408</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2596,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>408</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2635,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>408</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2674,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>408</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2713,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>408</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2752,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>408</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2791,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>408</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2830,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>408</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2869,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>408</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2908,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>408</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2947,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>408</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2986,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>408</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3025,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>408</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3064,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>408</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3103,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>408</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3142,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>408</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3181,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>408</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3220,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>408</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3259,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>408</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3298,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>408</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3337,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>408</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3376,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>408</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3415,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>408</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3454,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>408</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3493,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>408</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3532,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>408</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3571,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>408</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3610,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>408</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3649,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>408</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3688,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>408</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3727,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>408</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3766,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>408</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3805,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>408</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3844,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>408</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3883,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>408</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3922,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>408</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3961,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>408</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4000,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>408</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4039,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>408</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4078,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>408</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4117,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>408</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4156,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>408</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4195,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>408</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4234,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>408</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4273,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>408</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4312,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>408</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4351,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>408</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4390,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>408</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4429,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>408</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4468,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>408</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4507,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>408</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4546,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>408</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4585,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>408</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4624,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>408</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4663,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>408</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4702,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>408</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4741,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>408</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4780,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>408</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4819,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>408</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4858,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>408</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4897,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>408</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4936,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>408</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4975,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>408</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5014,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>408</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5053,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>408</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5092,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>408</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5131,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>408</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5170,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>408</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5209,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>408</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5248,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>408</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5287,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>408</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5326,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>408</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5365,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>408</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5404,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>408</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5443,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>408</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5482,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>408</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5521,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>408</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5560,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>408</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5599,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>408</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5638,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>408</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5677,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>408</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5716,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>408</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5755,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>408</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5794,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>408</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5833,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>408</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5872,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>408</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5911,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>408</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5950,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>408</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5989,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>408</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6028,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>408</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6067,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>408</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6106,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>408</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6145,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>408</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6184,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>408</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6223,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>408</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6262,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>408</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6301,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>408</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6340,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>408</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6379,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>408</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6418,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>408</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6457,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>408</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6496,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>408</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6535,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>408</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6574,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>408</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6613,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>408</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6652,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>408</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6691,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>408</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6730,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>408</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6769,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>408</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6808,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>408</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6847,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>408</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6886,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>408</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6925,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>408</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6964,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>408</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7003,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>408</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7042,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>408</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7081,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>408</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7120,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>408</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7159,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>408</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7198,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>408</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7237,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>408</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7276,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>408</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7315,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>408</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7354,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>408</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7393,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>408</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7432,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>408</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7471,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>408</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7510,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>408</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7549,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>408</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7588,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>408</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7627,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>408</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7666,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>408</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7702,19 +6556,11 @@
         <v>-45660.92610237999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>406</v>
-      </c>
-      <c r="J187" t="n">
-        <v>408</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7749,13 +6595,9 @@
         <v>405</v>
       </c>
       <c r="J188" t="n">
-        <v>408</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7790,11 +6632,11 @@
         <v>406</v>
       </c>
       <c r="J189" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -7831,7 +6673,7 @@
         <v>405</v>
       </c>
       <c r="J190" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7872,7 +6714,7 @@
         <v>406</v>
       </c>
       <c r="J191" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7913,7 +6755,7 @@
         <v>408</v>
       </c>
       <c r="J192" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7954,7 +6796,7 @@
         <v>407</v>
       </c>
       <c r="J193" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7995,7 +6837,7 @@
         <v>407</v>
       </c>
       <c r="J194" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8030,13 +6872,11 @@
         <v>-45093.10629218999</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8071,13 +6911,11 @@
         <v>-44476.25169218999</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8112,13 +6950,11 @@
         <v>-45802.92919218999</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8153,13 +6989,11 @@
         <v>-43741.07989218998</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8198,7 +7032,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8237,7 +7071,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8276,7 +7110,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8315,7 +7149,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8354,7 +7188,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8393,7 +7227,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8432,7 +7266,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8471,7 +7305,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8510,7 +7344,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8549,7 +7383,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8588,7 +7422,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8627,7 +7461,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8666,7 +7500,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8705,7 +7539,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8744,7 +7578,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8783,7 +7617,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8822,7 +7656,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8861,7 +7695,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8900,7 +7734,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8939,7 +7773,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8978,7 +7812,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9017,7 +7851,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9056,7 +7890,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9095,7 +7929,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9134,7 +7968,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9173,7 +8007,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9212,7 +8046,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9251,7 +8085,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9286,21 +8120,23 @@
         <v>100945.77687642</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>1.05179012345679</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1.042183622828784</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9325,17 +8161,11 @@
         <v>106964.84095462</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>408</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9364,17 +8194,11 @@
         <v>106963.84093282</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>408</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9403,17 +8227,11 @@
         <v>123265.50653282</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>408</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9442,17 +8260,11 @@
         <v>121535.39093282</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>408</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9481,17 +8293,11 @@
         <v>125525.06605315</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>408</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9523,14 +8329,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>408</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9562,14 +8362,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>408</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9601,14 +8395,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>408</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9640,14 +8428,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>408</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9679,14 +8461,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>408</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9718,14 +8494,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>408</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9757,14 +8527,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>408</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9796,14 +8560,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>408</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9835,14 +8593,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>408</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9874,14 +8626,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>408</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9913,14 +8659,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>408</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9952,14 +8692,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>408</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9991,14 +8725,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>408</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10027,23 +8755,15 @@
         <v>147780.92858075</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>408</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
-        <v>1.068529411764706</v>
-      </c>
-      <c r="M246" t="n">
-        <v>1.002450980392157</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10068,7 +8788,7 @@
         <v>143415.68248075</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10101,7 +8821,7 @@
         <v>155884.05458075</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10134,7 +8854,7 @@
         <v>155884.05458075</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10167,7 +8887,7 @@
         <v>194719.07098075</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10200,7 +8920,7 @@
         <v>201611.36260699</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10233,7 +8953,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10266,7 +8986,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10299,7 +9019,7 @@
         <v>207217.77410699</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10332,7 +9052,7 @@
         <v>169674.23360699</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10365,7 +9085,7 @@
         <v>163380.23460699</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10398,7 +9118,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10431,7 +9151,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10464,7 +9184,7 @@
         <v>144654.01290699</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10497,7 +9217,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10530,7 +9250,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10563,7 +9283,7 @@
         <v>148833.25870699</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10596,7 +9316,7 @@
         <v>148536.31870699</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10629,7 +9349,7 @@
         <v>145349.50580699</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10662,7 +9382,7 @@
         <v>136081.88680699</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10695,7 +9415,7 @@
         <v>153057.84560699</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10728,7 +9448,7 @@
         <v>144621.59480699</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10761,7 +9481,7 @@
         <v>147297.88310699</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10794,7 +9514,7 @@
         <v>144461.95180699</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10827,7 +9547,7 @@
         <v>144523.72120699</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10860,7 +9580,7 @@
         <v>142405.57050699</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10893,7 +9613,7 @@
         <v>129574.64370699</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10926,7 +9646,7 @@
         <v>129574.64370699</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10959,7 +9679,7 @@
         <v>99522.99740699001</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10992,7 +9712,7 @@
         <v>67965.57270699</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11025,7 +9745,7 @@
         <v>74215.06000699</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11058,7 +9778,7 @@
         <v>71152.80350698999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11091,7 +9811,7 @@
         <v>71152.80350698999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11124,7 +9844,7 @@
         <v>71152.80350698999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11157,7 +9877,7 @@
         <v>58718.99410698999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11190,7 +9910,7 @@
         <v>81953.80810698999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11223,7 +9943,7 @@
         <v>86639.0248895</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11256,7 +9976,7 @@
         <v>83623.1098895</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11289,7 +10009,7 @@
         <v>85647.6178895</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11322,7 +10042,7 @@
         <v>80694.9918895</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11652,7 +10372,7 @@
         <v>35363.9393895</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11685,7 +10405,7 @@
         <v>35363.9393895</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -14985,11 +13705,17 @@
         <v>-135996.47162103</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>420</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15022,7 +13748,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15055,7 +13785,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15088,7 +13822,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15121,7 +13859,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15154,7 +13896,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15187,7 +13933,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15220,7 +13970,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15253,7 +14007,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15286,7 +14044,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15319,7 +14081,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15352,7 +14118,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15385,7 +14155,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15418,7 +14192,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15451,7 +14229,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15484,7 +14266,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15517,7 +14303,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15550,7 +14340,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15583,7 +14377,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15616,7 +14414,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15649,7 +14451,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15682,7 +14488,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15715,7 +14525,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15748,7 +14562,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15781,7 +14599,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15814,7 +14636,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15847,7 +14673,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15880,7 +14710,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15913,7 +14747,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15946,7 +14784,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15979,7 +14821,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16012,7 +14858,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16045,7 +14895,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16078,7 +14932,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16111,7 +14969,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16144,7 +15006,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16177,7 +15043,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16210,7 +15080,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16243,7 +15117,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16276,7 +15154,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16309,7 +15191,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16342,7 +15228,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16375,7 +15265,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16408,7 +15302,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16441,7 +15339,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16474,7 +15376,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16507,7 +15413,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16540,7 +15450,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16573,7 +15487,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16606,7 +15524,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16639,7 +15561,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16672,7 +15598,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16705,7 +15635,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16738,7 +15672,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16771,7 +15709,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16804,7 +15746,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16837,7 +15783,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16870,7 +15820,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16903,7 +15857,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16936,7 +15894,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16969,7 +15931,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17002,7 +15968,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17035,7 +16005,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17068,7 +16042,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17101,7 +16079,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17134,7 +16116,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17167,7 +16153,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17200,7 +16190,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17233,7 +16227,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17266,7 +16264,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17299,7 +16301,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17332,7 +16338,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17365,7 +16375,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17398,7 +16412,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17431,7 +16449,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17464,7 +16486,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17497,7 +16523,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17530,7 +16560,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17563,7 +16597,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17596,7 +16634,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17629,7 +16671,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17662,7 +16708,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17695,7 +16745,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17728,7 +16782,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17761,7 +16819,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17794,7 +16856,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17827,7 +16893,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17860,7 +16930,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17893,7 +16967,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17926,7 +17004,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17959,7 +17041,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17992,7 +17078,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18025,7 +17115,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18058,7 +17152,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18091,7 +17189,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18124,7 +17226,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18157,7 +17263,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18190,7 +17300,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18223,7 +17337,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18256,7 +17374,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18289,7 +17411,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18322,7 +17448,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18355,7 +17485,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18388,7 +17522,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18421,7 +17559,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18454,7 +17596,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18487,7 +17633,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18520,7 +17670,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18553,7 +17707,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18586,7 +17744,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18619,7 +17781,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18652,7 +17818,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18685,7 +17855,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18718,7 +17892,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18751,7 +17929,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18784,7 +17966,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18817,7 +18003,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18850,7 +18040,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18883,7 +18077,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18916,7 +18114,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18949,7 +18151,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18982,7 +18188,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19015,7 +18225,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19048,7 +18262,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19081,7 +18299,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19114,7 +18336,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19147,7 +18373,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19180,7 +18410,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19213,7 +18447,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19246,7 +18484,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19279,7 +18521,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19312,7 +18558,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19345,7 +18595,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19378,7 +18632,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19411,7 +18669,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19444,7 +18706,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19477,7 +18743,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19510,7 +18780,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19543,7 +18817,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19576,7 +18854,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19609,7 +18891,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19642,7 +18928,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19675,7 +18965,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19708,7 +19002,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19741,7 +19039,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19774,7 +19076,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19807,7 +19113,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19840,7 +19150,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19873,7 +19187,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19906,7 +19224,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19939,7 +19261,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19972,7 +19298,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20005,7 +19335,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20038,7 +19372,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20071,7 +19409,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20104,7 +19446,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20137,7 +19483,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20170,7 +19520,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20203,7 +19557,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20236,7 +19594,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20269,7 +19631,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20302,7 +19668,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20335,7 +19705,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20368,7 +19742,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20401,7 +19779,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20434,7 +19816,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20467,7 +19853,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20500,7 +19890,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20533,7 +19927,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20566,7 +19964,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20599,7 +20001,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20632,7 +20038,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20665,7 +20075,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20698,7 +20112,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20731,7 +20149,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20764,7 +20186,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20797,7 +20223,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20830,7 +20260,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20863,7 +20297,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20896,7 +20334,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20929,7 +20371,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20962,7 +20408,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20995,7 +20445,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21028,7 +20482,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21061,7 +20519,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21094,7 +20556,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21127,7 +20593,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21160,7 +20630,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21193,7 +20667,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21226,7 +20704,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21259,7 +20741,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21292,7 +20778,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21325,7 +20815,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21358,7 +20852,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21391,7 +20889,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21424,7 +20926,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21457,7 +20963,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21490,7 +21000,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21523,7 +21037,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21556,7 +21074,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21589,7 +21111,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21622,7 +21148,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21655,7 +21185,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21688,7 +21222,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21721,7 +21259,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21754,7 +21296,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21787,7 +21333,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21820,7 +21370,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21853,7 +21407,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21886,7 +21444,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21919,7 +21481,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21952,7 +21518,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21985,7 +21555,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22018,7 +21592,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22051,7 +21629,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22084,7 +21666,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22117,7 +21703,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22150,7 +21740,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22183,7 +21777,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22216,7 +21814,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22249,7 +21851,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22282,7 +21888,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22315,7 +21925,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22348,7 +21962,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22381,7 +21999,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22414,7 +22036,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22447,7 +22073,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22480,7 +22110,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22513,7 +22147,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22546,7 +22184,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22579,7 +22221,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22612,7 +22258,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22645,7 +22295,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22678,7 +22332,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22711,7 +22369,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22744,7 +22406,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22777,7 +22443,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22810,7 +22480,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22843,7 +22517,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22876,7 +22554,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22909,7 +22591,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22942,7 +22628,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22975,7 +22665,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23008,7 +22702,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23041,7 +22739,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23074,7 +22776,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23107,7 +22813,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23140,7 +22850,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23173,7 +22887,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23206,7 +22924,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23239,7 +22961,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23272,7 +22998,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23305,7 +23035,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23338,7 +23072,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23371,7 +23109,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23404,7 +23146,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23437,7 +23183,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23470,7 +23220,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23503,7 +23257,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23536,7 +23294,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23569,7 +23331,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23602,7 +23368,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23635,7 +23405,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23668,7 +23442,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23701,7 +23479,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23734,7 +23516,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23767,7 +23553,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23800,7 +23590,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23833,7 +23627,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23866,7 +23664,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23899,7 +23701,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23932,7 +23738,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23965,7 +23775,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23998,7 +23812,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24031,7 +23849,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24064,7 +23886,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24097,7 +23923,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24130,7 +23960,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24159,15 +23993,13 @@
         <v>-120522.1524636301</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L674" t="n">
@@ -24198,11 +24030,9 @@
         <v>-121221.6927636301</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24237,11 +24067,9 @@
         <v>-121195.8114636301</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -24276,11 +24104,9 @@
         <v>-121195.8114636301</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -24315,11 +24141,9 @@
         <v>-127279.7391636301</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -24354,11 +24178,9 @@
         <v>-120036.8517636301</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
@@ -24430,11 +24252,9 @@
         <v>-118460.9197460001</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -24469,11 +24289,9 @@
         <v>-126997.1447283701</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -24508,11 +24326,9 @@
         <v>-125638.5899283701</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24547,11 +24363,9 @@
         <v>-125638.5899283701</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -24586,11 +24400,9 @@
         <v>-123795.0992772101</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -24625,11 +24437,9 @@
         <v>-120239.0531409001</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -24664,11 +24474,9 @@
         <v>-120698.5983409</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -24703,11 +24511,9 @@
         <v>-122267.3775409001</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -24742,11 +24548,9 @@
         <v>-118392.05602837</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -24781,11 +24585,9 @@
         <v>-119707.54502837</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -25005,11 +24807,9 @@
         <v>-118378.5626283701</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -25673,11 +25473,9 @@
         <v>-118223.2393283701</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -25823,11 +25621,9 @@
         <v>-107302.83932837</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -25862,11 +25658,9 @@
         <v>-106219.36982837</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -26397,6 +26191,6 @@
       <c r="M733" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest MTL.xlsx
+++ b/BackTest/2019-10-31 BackTest MTL.xlsx
@@ -1177,10 +1177,14 @@
         <v>-35268.91905397999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>407</v>
+      </c>
+      <c r="J24" t="n">
+        <v>407</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1210,11 +1214,19 @@
         <v>-35267.80905397999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>406</v>
+      </c>
+      <c r="J25" t="n">
+        <v>407</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1255,19 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>409</v>
+      </c>
+      <c r="J26" t="n">
+        <v>407</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1296,19 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>406</v>
+      </c>
+      <c r="J27" t="n">
+        <v>407</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1337,19 @@
         <v>-37541.80905397999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>406</v>
+      </c>
+      <c r="J28" t="n">
+        <v>407</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1378,19 @@
         <v>-37575.55635397999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>409</v>
+      </c>
+      <c r="J29" t="n">
+        <v>407</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1419,19 @@
         <v>-37477.49625397999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>406</v>
+      </c>
+      <c r="J30" t="n">
+        <v>407</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1460,19 @@
         <v>-37474.58655397999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>407</v>
+      </c>
+      <c r="J31" t="n">
+        <v>407</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1501,19 @@
         <v>-38445.29175397999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>410</v>
+      </c>
+      <c r="J32" t="n">
+        <v>407</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1542,19 @@
         <v>-52727.29395397999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>405</v>
+      </c>
+      <c r="J33" t="n">
+        <v>407</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1583,19 @@
         <v>-51691.38525397999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>403</v>
+      </c>
+      <c r="J34" t="n">
+        <v>407</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1624,19 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>412</v>
+      </c>
+      <c r="J35" t="n">
+        <v>407</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1665,19 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>413</v>
+      </c>
+      <c r="J36" t="n">
+        <v>407</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1706,19 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>413</v>
+      </c>
+      <c r="J37" t="n">
+        <v>407</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1747,19 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>410</v>
+      </c>
+      <c r="J38" t="n">
+        <v>407</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1788,19 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>410</v>
+      </c>
+      <c r="J39" t="n">
+        <v>407</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1829,19 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>410</v>
+      </c>
+      <c r="J40" t="n">
+        <v>407</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1870,19 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>410</v>
+      </c>
+      <c r="J41" t="n">
+        <v>407</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1911,19 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>408</v>
+      </c>
+      <c r="J42" t="n">
+        <v>407</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1952,19 @@
         <v>-35081.11605397999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>408</v>
+      </c>
+      <c r="J43" t="n">
+        <v>407</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1993,19 @@
         <v>-35079.01605397999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>410</v>
+      </c>
+      <c r="J44" t="n">
+        <v>407</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2037,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>407</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2073,19 @@
         <v>-35080.01605397999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>411</v>
+      </c>
+      <c r="J46" t="n">
+        <v>407</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2114,19 @@
         <v>-35079.01605397999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>411</v>
+      </c>
+      <c r="J47" t="n">
+        <v>407</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2155,19 @@
         <v>-35097.52925397999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>415</v>
+      </c>
+      <c r="J48" t="n">
+        <v>407</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2196,19 @@
         <v>-35097.52925397999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>411</v>
+      </c>
+      <c r="J49" t="n">
+        <v>407</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2237,19 @@
         <v>-35096.42925397999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>411</v>
+      </c>
+      <c r="J50" t="n">
+        <v>407</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2278,19 @@
         <v>-35097.42925397999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>416</v>
+      </c>
+      <c r="J51" t="n">
+        <v>407</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2319,19 @@
         <v>-37212.32955397999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>412</v>
+      </c>
+      <c r="J52" t="n">
+        <v>407</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2360,19 @@
         <v>-37748.66805397999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>411</v>
+      </c>
+      <c r="J53" t="n">
+        <v>407</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2401,19 @@
         <v>-37134.05465397999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>410</v>
+      </c>
+      <c r="J54" t="n">
+        <v>407</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2442,19 @@
         <v>-36095.84495397999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>412</v>
+      </c>
+      <c r="J55" t="n">
+        <v>407</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2483,19 @@
         <v>-37142.25465397999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>416</v>
+      </c>
+      <c r="J56" t="n">
+        <v>407</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2524,19 @@
         <v>-37142.25465397999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>415</v>
+      </c>
+      <c r="J57" t="n">
+        <v>407</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2565,19 @@
         <v>-37141.13465397999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>415</v>
+      </c>
+      <c r="J58" t="n">
+        <v>407</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2606,19 @@
         <v>-37142.13465397999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>418</v>
+      </c>
+      <c r="J59" t="n">
+        <v>407</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2647,19 @@
         <v>-37149.13465397999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>416</v>
+      </c>
+      <c r="J60" t="n">
+        <v>407</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2688,19 @@
         <v>-37148.13465397999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>415</v>
+      </c>
+      <c r="J61" t="n">
+        <v>407</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2729,19 @@
         <v>-37149.13465397999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>417</v>
+      </c>
+      <c r="J62" t="n">
+        <v>407</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2770,19 @@
         <v>-37029.47197455999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>415</v>
+      </c>
+      <c r="J63" t="n">
+        <v>407</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2811,19 @@
         <v>-37036.47197455999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>418</v>
+      </c>
+      <c r="J64" t="n">
+        <v>407</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2852,19 @@
         <v>-37037.47197455999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>416</v>
+      </c>
+      <c r="J65" t="n">
+        <v>407</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2893,19 @@
         <v>-37037.47197455999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>415</v>
+      </c>
+      <c r="J66" t="n">
+        <v>407</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2937,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>407</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2976,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>407</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3015,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>407</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3054,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>407</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3093,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>407</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3132,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>407</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3171,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>407</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3210,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>407</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3249,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>407</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3288,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>407</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3327,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>407</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3366,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>407</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3405,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>407</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>407</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3483,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>407</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3522,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>407</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3561,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>407</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3600,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>407</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3639,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>407</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>407</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3717,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>407</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3756,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>407</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3795,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>407</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3834,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>407</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3873,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>407</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3912,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>407</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3951,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>407</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3990,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>407</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4029,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>407</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4068,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>407</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4107,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>407</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4146,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>407</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4185,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>407</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4224,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>407</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>407</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4302,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>407</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4341,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>407</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4380,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>407</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4419,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>407</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4458,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>407</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4497,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>407</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4536,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>407</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4575,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>407</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4614,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>407</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>407</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4692,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>407</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>407</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>407</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4809,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>407</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4848,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>407</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4887,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>407</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4926,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>407</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4965,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>407</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5004,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>407</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>407</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5082,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>407</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>407</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5160,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>407</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5199,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>407</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>407</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5277,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>407</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>407</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5355,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>407</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5394,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>407</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5433,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>407</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5472,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>407</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5511,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>407</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5550,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>407</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>407</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>407</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>407</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>407</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5745,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>407</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>407</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5823,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>407</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5862,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>407</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5901,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>407</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>407</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5979,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>407</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +6018,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>407</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>407</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>407</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6135,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>407</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>407</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6213,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>407</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>407</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6291,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>407</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6330,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>407</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6369,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>407</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6408,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>407</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6447,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>407</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6486,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>407</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6525,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>407</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6564,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>407</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6603,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>407</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6642,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>407</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6681,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>407</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>407</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6759,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>407</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6798,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>407</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6837,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>407</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6876,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>407</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6915,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>407</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6954,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>407</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6993,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>407</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +7032,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>407</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +7071,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>407</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +7110,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>407</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +7149,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>407</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +7188,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>407</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +7227,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>407</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +7266,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>407</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +7305,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>407</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7344,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>407</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7383,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>407</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7422,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>407</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7461,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>407</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7500,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>407</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7539,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>407</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7578,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>407</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7617,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>407</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6595,9 +7659,13 @@
         <v>405</v>
       </c>
       <c r="J188" t="n">
-        <v>405</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+        <v>407</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6632,11 +7700,11 @@
         <v>406</v>
       </c>
       <c r="J189" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -6673,7 +7741,7 @@
         <v>405</v>
       </c>
       <c r="J190" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6714,7 +7782,7 @@
         <v>406</v>
       </c>
       <c r="J191" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6755,7 +7823,7 @@
         <v>408</v>
       </c>
       <c r="J192" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6796,7 +7864,7 @@
         <v>407</v>
       </c>
       <c r="J193" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6837,7 +7905,7 @@
         <v>407</v>
       </c>
       <c r="J194" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6872,11 +7940,13 @@
         <v>-45093.10629218999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>412</v>
+      </c>
       <c r="J195" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6911,11 +7981,13 @@
         <v>-44476.25169218999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>410</v>
+      </c>
       <c r="J196" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -6954,7 +8026,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -6989,11 +8061,13 @@
         <v>-43741.07989218998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>410</v>
+      </c>
       <c r="J198" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7032,7 +8106,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7071,7 +8145,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7110,7 +8184,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7149,7 +8223,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7188,7 +8262,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7227,7 +8301,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7266,7 +8340,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7305,7 +8379,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7344,7 +8418,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7383,7 +8457,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7422,7 +8496,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7461,7 +8535,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7500,7 +8574,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7539,7 +8613,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7578,7 +8652,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7617,7 +8691,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7656,7 +8730,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7695,7 +8769,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7734,7 +8808,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7773,7 +8847,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7812,7 +8886,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7851,7 +8925,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7890,7 +8964,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7929,7 +9003,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7968,7 +9042,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8007,7 +9081,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8046,7 +9120,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8085,7 +9159,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8120,23 +9194,21 @@
         <v>100945.77687642</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1.05179012345679</v>
-      </c>
-      <c r="M227" t="n">
-        <v>1.042183622828784</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8161,11 +9233,17 @@
         <v>106964.84095462</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>407</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8194,11 +9272,17 @@
         <v>106963.84093282</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>407</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8227,11 +9311,17 @@
         <v>123265.50653282</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>407</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8260,11 +9350,17 @@
         <v>121535.39093282</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>407</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8293,11 +9389,17 @@
         <v>125525.06605315</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>407</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8329,8 +9431,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>407</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8362,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>407</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8395,8 +9509,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>407</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8428,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>407</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8461,8 +9587,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>407</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8494,8 +9626,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>407</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8527,8 +9665,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>407</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8560,8 +9704,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>407</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8593,8 +9743,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>407</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8626,8 +9782,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>407</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8659,8 +9821,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>407</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8692,8 +9860,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>407</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8725,8 +9899,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>407</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8758,8 +9938,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>407</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8791,8 +9977,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>407</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8824,8 +10016,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>407</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8857,8 +10055,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>407</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8890,8 +10094,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>407</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8920,15 +10130,23 @@
         <v>201611.36260699</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>407</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>1.080995085995086</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1.009852216748768</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8953,7 +10171,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8986,7 +10204,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9019,7 +10237,7 @@
         <v>207217.77410699</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9052,7 +10270,7 @@
         <v>169674.23360699</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9085,7 +10303,7 @@
         <v>163380.23460699</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9118,7 +10336,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9151,7 +10369,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9184,7 +10402,7 @@
         <v>144654.01290699</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9217,7 +10435,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9250,7 +10468,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9349,7 +10567,7 @@
         <v>145349.50580699</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -13705,17 +14923,11 @@
         <v>-135996.47162103</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13748,11 +14960,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13785,11 +14993,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13822,11 +15026,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13859,11 +15059,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13896,11 +15092,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13933,11 +15125,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13970,11 +15158,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14007,11 +15191,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14044,11 +15224,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14081,11 +15257,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14118,11 +15290,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14155,11 +15323,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14192,11 +15356,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14229,11 +15389,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14266,11 +15422,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14303,11 +15455,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14340,11 +15488,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +15521,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14414,11 +15554,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14451,11 +15587,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14488,11 +15620,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14525,11 +15653,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14562,11 +15686,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14599,11 +15719,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14636,11 +15752,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14669,13 +15781,15 @@
         <v>-121663.1337210301</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>422</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L422" t="n">
@@ -14706,9 +15820,11 @@
         <v>-120307.6720210301</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>421</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14743,9 +15859,11 @@
         <v>-120307.6720210301</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>422</v>
+      </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14817,9 +15935,11 @@
         <v>-122435.7820210301</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>421</v>
+      </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14891,9 +16011,11 @@
         <v>-122435.7820210301</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>422</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14928,9 +16050,11 @@
         <v>-122434.7820210301</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>422</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15039,9 +16163,11 @@
         <v>-125342.7617210301</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>423</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15187,9 +16313,11 @@
         <v>-124233.5432210301</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>425</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15224,9 +16352,11 @@
         <v>-124233.5432210301</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>422</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15261,9 +16391,11 @@
         <v>-124233.5432210301</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>422</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15298,9 +16430,11 @@
         <v>-121924.6738210301</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>422</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15335,9 +16469,11 @@
         <v>-122024.6738210301</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>424</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15372,9 +16508,11 @@
         <v>-122024.6738210301</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>423</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15409,9 +16547,11 @@
         <v>-122024.6738210301</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>423</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15446,9 +16586,11 @@
         <v>-122024.6738210301</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>423</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15483,9 +16625,11 @@
         <v>-73556.09872103007</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>423</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -23549,9 +24693,11 @@
         <v>-113416.2465636301</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>430</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -23586,9 +24732,11 @@
         <v>-113416.2465636301</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>429</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23623,9 +24771,11 @@
         <v>-113416.2465636301</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>429</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23660,9 +24810,11 @@
         <v>-113416.2465636301</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>429</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -23697,9 +24849,11 @@
         <v>-101816.4654636301</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>429</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -23734,9 +24888,11 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>430</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23771,9 +24927,11 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>429</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -23808,9 +24966,11 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>429</v>
+      </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -23845,9 +25005,11 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>429</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -23882,9 +25044,11 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>429</v>
+      </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -23919,9 +25083,11 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>429</v>
+      </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -23956,9 +25122,11 @@
         <v>-122616.0749636301</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>429</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23993,9 +25161,11 @@
         <v>-120522.1524636301</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>430</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -24030,9 +25200,11 @@
         <v>-121221.6927636301</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>431</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24067,9 +25239,11 @@
         <v>-121195.8114636301</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>429</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -24104,9 +25278,11 @@
         <v>-121195.8114636301</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>430</v>
+      </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -24141,9 +25317,11 @@
         <v>-127279.7391636301</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>430</v>
+      </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -24178,9 +25356,11 @@
         <v>-120036.8517636301</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>428</v>
+      </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
@@ -24215,9 +25395,11 @@
         <v>-118460.9197460001</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>429</v>
+      </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -24252,9 +25434,11 @@
         <v>-118460.9197460001</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>430</v>
+      </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -24289,9 +25473,11 @@
         <v>-126997.1447283701</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>430</v>
+      </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -24326,9 +25512,11 @@
         <v>-125638.5899283701</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>428</v>
+      </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24363,9 +25551,11 @@
         <v>-125638.5899283701</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>429</v>
+      </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -24400,9 +25590,11 @@
         <v>-123795.0992772101</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>429</v>
+      </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -24437,9 +25629,11 @@
         <v>-120239.0531409001</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>430</v>
+      </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -24474,9 +25668,11 @@
         <v>-120698.5983409</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>431</v>
+      </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -24511,9 +25707,11 @@
         <v>-122267.3775409001</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>430</v>
+      </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -24548,9 +25746,11 @@
         <v>-118392.05602837</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>429</v>
+      </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -24585,9 +25785,11 @@
         <v>-119707.54502837</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>432</v>
+      </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24622,9 +25824,11 @@
         <v>-116108.7997283701</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>431</v>
+      </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -24659,9 +25863,11 @@
         <v>-117628.0647283701</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>432</v>
+      </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -24696,9 +25902,11 @@
         <v>-116336.7986283701</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>429</v>
+      </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -24733,9 +25941,11 @@
         <v>-116310.5626283701</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>430</v>
+      </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -24770,9 +25980,11 @@
         <v>-118690.5626283701</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>431</v>
+      </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -24807,9 +26019,11 @@
         <v>-118378.5626283701</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>430</v>
+      </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -24844,9 +26058,11 @@
         <v>-118378.5626283701</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>431</v>
+      </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -24881,9 +26097,11 @@
         <v>-117229.0817283701</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>431</v>
+      </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -24918,9 +26136,11 @@
         <v>-104757.0038283701</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>432</v>
+      </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -24955,9 +26175,11 @@
         <v>-105244.6367283701</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>434</v>
+      </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -24992,9 +26214,11 @@
         <v>-99786.49492837006</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>431</v>
+      </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
@@ -25029,9 +26253,11 @@
         <v>-104485.73102837</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>432</v>
+      </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
@@ -25066,9 +26292,11 @@
         <v>-101084.6293283701</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>430</v>
+      </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -25103,9 +26331,11 @@
         <v>-99824.56202837006</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>431</v>
+      </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
